--- a/SnU2016.xlsx
+++ b/SnU2016.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\misha\Projects\economics\multiplier\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6C87684-8E3B-440C-8FA6-C0D831D7A702}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="330" windowWidth="14355" windowHeight="6660"/>
+    <workbookView xWindow="30630" yWindow="3450" windowWidth="20790" windowHeight="12975" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="supply and use" sheetId="1" r:id="rId1"/>
@@ -414,7 +420,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="6">
     <numFmt numFmtId="164" formatCode="_-&quot;ر.س.‏&quot;\ * #,##0_-;_-&quot;ر.س.‏&quot;\ * #,##0\-;_-&quot;ر.س.‏&quot;\ * &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0_-;_-* #,##0\-;_-* &quot;-&quot;_-;_-@_-"/>
@@ -515,18 +521,12 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -537,24 +537,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -733,7 +715,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="7" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -746,13 +728,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="168" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="2" fillId="5" borderId="3" xfId="68" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="2" fillId="6" borderId="3" xfId="68" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="2" fillId="7" borderId="3" xfId="68" applyFill="1" applyBorder="1"/>
     <xf numFmtId="168" fontId="2" fillId="0" borderId="4" xfId="68" applyFill="1" applyBorder="1"/>
     <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="2" fillId="2" borderId="3" xfId="68" applyFill="1" applyBorder="1"/>
     <xf numFmtId="168" fontId="2" fillId="0" borderId="5" xfId="68" applyBorder="1"/>
     <xf numFmtId="168" fontId="2" fillId="0" borderId="3" xfId="68" applyBorder="1"/>
     <xf numFmtId="168" fontId="2" fillId="0" borderId="2" xfId="68" applyBorder="1"/>
@@ -774,22 +752,22 @@
     <xf numFmtId="3" fontId="12" fillId="0" borderId="2" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="2" xfId="66" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="66" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="2" xfId="66" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="66" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="8" fillId="0" borderId="2" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="3" fontId="13" fillId="3" borderId="2" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="13" fillId="2" borderId="2" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="3" fontId="13" fillId="3" borderId="2" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="13" fillId="2" borderId="2" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="3" fontId="9" fillId="3" borderId="2" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="9" fillId="2" borderId="2" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="3" fontId="12" fillId="0" borderId="0" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -797,91 +775,94 @@
     </xf>
   </cellXfs>
   <cellStyles count="79">
-    <cellStyle name="Comma 2" xfId="70"/>
-    <cellStyle name="Comma 3" xfId="71"/>
-    <cellStyle name="Comma 3 2" xfId="69"/>
-    <cellStyle name="MS_Arabic" xfId="2"/>
+    <cellStyle name="Comma 2" xfId="70" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Comma 3" xfId="71" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Comma 3 2" xfId="69" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="MS_Arabic" xfId="2" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 10" xfId="72"/>
-    <cellStyle name="Normal 12 10" xfId="62"/>
-    <cellStyle name="Normal 13 10" xfId="61"/>
-    <cellStyle name="Normal 14 10" xfId="60"/>
-    <cellStyle name="Normal 15 10" xfId="59"/>
-    <cellStyle name="Normal 16" xfId="58"/>
-    <cellStyle name="Normal 17" xfId="57"/>
-    <cellStyle name="Normal 18" xfId="56"/>
-    <cellStyle name="Normal 19" xfId="55"/>
-    <cellStyle name="Normal 2" xfId="3"/>
-    <cellStyle name="Normal 2 2" xfId="13"/>
-    <cellStyle name="Normal 2 2 2" xfId="73"/>
-    <cellStyle name="Normal 2 2 2 2" xfId="76"/>
-    <cellStyle name="Normal 2 2 3" xfId="75"/>
-    <cellStyle name="Normal 2 3" xfId="68"/>
-    <cellStyle name="Normal 2 4" xfId="63"/>
-    <cellStyle name="Normal 20" xfId="54"/>
-    <cellStyle name="Normal 21" xfId="53"/>
-    <cellStyle name="Normal 22" xfId="52"/>
-    <cellStyle name="Normal 23" xfId="51"/>
-    <cellStyle name="Normal 24" xfId="50"/>
-    <cellStyle name="Normal 25" xfId="49"/>
-    <cellStyle name="Normal 26" xfId="48"/>
-    <cellStyle name="Normal 27" xfId="47"/>
-    <cellStyle name="Normal 28" xfId="46"/>
-    <cellStyle name="Normal 29" xfId="45"/>
-    <cellStyle name="Normal 3" xfId="9"/>
-    <cellStyle name="Normal 3 3" xfId="65"/>
-    <cellStyle name="Normal 3 4" xfId="64"/>
-    <cellStyle name="Normal 30" xfId="44"/>
-    <cellStyle name="Normal 31" xfId="43"/>
-    <cellStyle name="Normal 32" xfId="42"/>
-    <cellStyle name="Normal 33" xfId="41"/>
-    <cellStyle name="Normal 34" xfId="40"/>
-    <cellStyle name="Normal 35" xfId="39"/>
-    <cellStyle name="Normal 36" xfId="38"/>
-    <cellStyle name="Normal 37" xfId="37"/>
-    <cellStyle name="Normal 38" xfId="36"/>
-    <cellStyle name="Normal 39" xfId="35"/>
-    <cellStyle name="Normal 4" xfId="10"/>
-    <cellStyle name="Normal 4 2" xfId="66"/>
-    <cellStyle name="Normal 4 2 2" xfId="74"/>
-    <cellStyle name="Normal 4 3" xfId="77"/>
-    <cellStyle name="Normal 40" xfId="34"/>
-    <cellStyle name="Normal 41" xfId="33"/>
-    <cellStyle name="Normal 42" xfId="32"/>
-    <cellStyle name="Normal 43" xfId="31"/>
-    <cellStyle name="Normal 44" xfId="30"/>
-    <cellStyle name="Normal 45" xfId="29"/>
-    <cellStyle name="Normal 46" xfId="28"/>
-    <cellStyle name="Normal 47" xfId="27"/>
-    <cellStyle name="Normal 48" xfId="26"/>
-    <cellStyle name="Normal 49" xfId="25"/>
-    <cellStyle name="Normal 5" xfId="11"/>
-    <cellStyle name="Normal 50" xfId="24"/>
-    <cellStyle name="Normal 51" xfId="23"/>
-    <cellStyle name="Normal 52" xfId="22"/>
-    <cellStyle name="Normal 53" xfId="21"/>
-    <cellStyle name="Normal 54" xfId="20"/>
-    <cellStyle name="Normal 55" xfId="19"/>
-    <cellStyle name="Normal 56" xfId="18"/>
-    <cellStyle name="Normal 57" xfId="17"/>
-    <cellStyle name="Normal 58" xfId="16"/>
-    <cellStyle name="Normal 59" xfId="15"/>
-    <cellStyle name="Normal 6" xfId="12"/>
-    <cellStyle name="Normal 60" xfId="14"/>
-    <cellStyle name="Normal 7" xfId="67"/>
-    <cellStyle name="Normal 8" xfId="1"/>
-    <cellStyle name="Percent 2" xfId="78"/>
-    <cellStyle name="عادي_Book1" xfId="4"/>
-    <cellStyle name="عملة [0]_Book1" xfId="5"/>
-    <cellStyle name="عملة_Book1" xfId="6"/>
-    <cellStyle name="فاصلة [0]_Book1" xfId="7"/>
-    <cellStyle name="فاصلة_Book1" xfId="8"/>
+    <cellStyle name="Normal 10" xfId="72" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="Normal 12 10" xfId="62" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="Normal 13 10" xfId="61" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="Normal 14 10" xfId="60" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="Normal 15 10" xfId="59" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="Normal 16" xfId="58" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="Normal 17" xfId="57" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="Normal 18" xfId="56" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
+    <cellStyle name="Normal 19" xfId="55" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
+    <cellStyle name="Normal 2" xfId="3" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
+    <cellStyle name="Normal 2 2" xfId="13" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
+    <cellStyle name="Normal 2 2 2" xfId="73" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
+    <cellStyle name="Normal 2 2 2 2" xfId="76" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
+    <cellStyle name="Normal 2 2 3" xfId="75" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
+    <cellStyle name="Normal 2 3" xfId="68" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
+    <cellStyle name="Normal 2 4" xfId="63" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
+    <cellStyle name="Normal 20" xfId="54" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
+    <cellStyle name="Normal 21" xfId="53" xr:uid="{00000000-0005-0000-0000-000016000000}"/>
+    <cellStyle name="Normal 22" xfId="52" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
+    <cellStyle name="Normal 23" xfId="51" xr:uid="{00000000-0005-0000-0000-000018000000}"/>
+    <cellStyle name="Normal 24" xfId="50" xr:uid="{00000000-0005-0000-0000-000019000000}"/>
+    <cellStyle name="Normal 25" xfId="49" xr:uid="{00000000-0005-0000-0000-00001A000000}"/>
+    <cellStyle name="Normal 26" xfId="48" xr:uid="{00000000-0005-0000-0000-00001B000000}"/>
+    <cellStyle name="Normal 27" xfId="47" xr:uid="{00000000-0005-0000-0000-00001C000000}"/>
+    <cellStyle name="Normal 28" xfId="46" xr:uid="{00000000-0005-0000-0000-00001D000000}"/>
+    <cellStyle name="Normal 29" xfId="45" xr:uid="{00000000-0005-0000-0000-00001E000000}"/>
+    <cellStyle name="Normal 3" xfId="9" xr:uid="{00000000-0005-0000-0000-00001F000000}"/>
+    <cellStyle name="Normal 3 3" xfId="65" xr:uid="{00000000-0005-0000-0000-000020000000}"/>
+    <cellStyle name="Normal 3 4" xfId="64" xr:uid="{00000000-0005-0000-0000-000021000000}"/>
+    <cellStyle name="Normal 30" xfId="44" xr:uid="{00000000-0005-0000-0000-000022000000}"/>
+    <cellStyle name="Normal 31" xfId="43" xr:uid="{00000000-0005-0000-0000-000023000000}"/>
+    <cellStyle name="Normal 32" xfId="42" xr:uid="{00000000-0005-0000-0000-000024000000}"/>
+    <cellStyle name="Normal 33" xfId="41" xr:uid="{00000000-0005-0000-0000-000025000000}"/>
+    <cellStyle name="Normal 34" xfId="40" xr:uid="{00000000-0005-0000-0000-000026000000}"/>
+    <cellStyle name="Normal 35" xfId="39" xr:uid="{00000000-0005-0000-0000-000027000000}"/>
+    <cellStyle name="Normal 36" xfId="38" xr:uid="{00000000-0005-0000-0000-000028000000}"/>
+    <cellStyle name="Normal 37" xfId="37" xr:uid="{00000000-0005-0000-0000-000029000000}"/>
+    <cellStyle name="Normal 38" xfId="36" xr:uid="{00000000-0005-0000-0000-00002A000000}"/>
+    <cellStyle name="Normal 39" xfId="35" xr:uid="{00000000-0005-0000-0000-00002B000000}"/>
+    <cellStyle name="Normal 4" xfId="10" xr:uid="{00000000-0005-0000-0000-00002C000000}"/>
+    <cellStyle name="Normal 4 2" xfId="66" xr:uid="{00000000-0005-0000-0000-00002D000000}"/>
+    <cellStyle name="Normal 4 2 2" xfId="74" xr:uid="{00000000-0005-0000-0000-00002E000000}"/>
+    <cellStyle name="Normal 4 3" xfId="77" xr:uid="{00000000-0005-0000-0000-00002F000000}"/>
+    <cellStyle name="Normal 40" xfId="34" xr:uid="{00000000-0005-0000-0000-000030000000}"/>
+    <cellStyle name="Normal 41" xfId="33" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
+    <cellStyle name="Normal 42" xfId="32" xr:uid="{00000000-0005-0000-0000-000032000000}"/>
+    <cellStyle name="Normal 43" xfId="31" xr:uid="{00000000-0005-0000-0000-000033000000}"/>
+    <cellStyle name="Normal 44" xfId="30" xr:uid="{00000000-0005-0000-0000-000034000000}"/>
+    <cellStyle name="Normal 45" xfId="29" xr:uid="{00000000-0005-0000-0000-000035000000}"/>
+    <cellStyle name="Normal 46" xfId="28" xr:uid="{00000000-0005-0000-0000-000036000000}"/>
+    <cellStyle name="Normal 47" xfId="27" xr:uid="{00000000-0005-0000-0000-000037000000}"/>
+    <cellStyle name="Normal 48" xfId="26" xr:uid="{00000000-0005-0000-0000-000038000000}"/>
+    <cellStyle name="Normal 49" xfId="25" xr:uid="{00000000-0005-0000-0000-000039000000}"/>
+    <cellStyle name="Normal 5" xfId="11" xr:uid="{00000000-0005-0000-0000-00003A000000}"/>
+    <cellStyle name="Normal 50" xfId="24" xr:uid="{00000000-0005-0000-0000-00003B000000}"/>
+    <cellStyle name="Normal 51" xfId="23" xr:uid="{00000000-0005-0000-0000-00003C000000}"/>
+    <cellStyle name="Normal 52" xfId="22" xr:uid="{00000000-0005-0000-0000-00003D000000}"/>
+    <cellStyle name="Normal 53" xfId="21" xr:uid="{00000000-0005-0000-0000-00003E000000}"/>
+    <cellStyle name="Normal 54" xfId="20" xr:uid="{00000000-0005-0000-0000-00003F000000}"/>
+    <cellStyle name="Normal 55" xfId="19" xr:uid="{00000000-0005-0000-0000-000040000000}"/>
+    <cellStyle name="Normal 56" xfId="18" xr:uid="{00000000-0005-0000-0000-000041000000}"/>
+    <cellStyle name="Normal 57" xfId="17" xr:uid="{00000000-0005-0000-0000-000042000000}"/>
+    <cellStyle name="Normal 58" xfId="16" xr:uid="{00000000-0005-0000-0000-000043000000}"/>
+    <cellStyle name="Normal 59" xfId="15" xr:uid="{00000000-0005-0000-0000-000044000000}"/>
+    <cellStyle name="Normal 6" xfId="12" xr:uid="{00000000-0005-0000-0000-000045000000}"/>
+    <cellStyle name="Normal 60" xfId="14" xr:uid="{00000000-0005-0000-0000-000046000000}"/>
+    <cellStyle name="Normal 7" xfId="67" xr:uid="{00000000-0005-0000-0000-000047000000}"/>
+    <cellStyle name="Normal 8" xfId="1" xr:uid="{00000000-0005-0000-0000-000048000000}"/>
+    <cellStyle name="Percent 2" xfId="78" xr:uid="{00000000-0005-0000-0000-000049000000}"/>
+    <cellStyle name="عادي_Book1" xfId="4" xr:uid="{00000000-0005-0000-0000-00004A000000}"/>
+    <cellStyle name="عملة [0]_Book1" xfId="5" xr:uid="{00000000-0005-0000-0000-00004B000000}"/>
+    <cellStyle name="عملة_Book1" xfId="6" xr:uid="{00000000-0005-0000-0000-00004C000000}"/>
+    <cellStyle name="فاصلة [0]_Book1" xfId="7" xr:uid="{00000000-0005-0000-0000-00004D000000}"/>
+    <cellStyle name="فاصلة_Book1" xfId="8" xr:uid="{00000000-0005-0000-0000-00004E000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -930,7 +911,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -963,9 +944,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -998,6 +996,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1173,10 +1188,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K29" sqref="K29"/>
     </sheetView>
   </sheetViews>
@@ -1267,61 +1282,61 @@
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="19">
+      <c r="B2" s="15">
         <v>6405.2900413356556</v>
       </c>
-      <c r="C2" s="19">
-        <v>0</v>
-      </c>
-      <c r="D2" s="19">
+      <c r="C2" s="15">
+        <v>0</v>
+      </c>
+      <c r="D2" s="15">
         <v>2118.203990472944</v>
       </c>
-      <c r="E2" s="19">
-        <v>0</v>
-      </c>
-      <c r="F2" s="19">
+      <c r="E2" s="15">
+        <v>0</v>
+      </c>
+      <c r="F2" s="15">
         <v>2446.0309441163959</v>
       </c>
-      <c r="G2" s="19">
+      <c r="G2" s="15">
         <v>62509.198921403549</v>
       </c>
-      <c r="H2" s="19">
-        <v>0</v>
-      </c>
-      <c r="I2" s="19">
+      <c r="H2" s="15">
+        <v>0</v>
+      </c>
+      <c r="I2" s="15">
         <v>5266.9758124265591</v>
       </c>
-      <c r="J2" s="19">
-        <v>0</v>
-      </c>
-      <c r="K2" s="19">
+      <c r="J2" s="15">
+        <v>0</v>
+      </c>
+      <c r="K2" s="15">
         <v>4662.315098108922</v>
       </c>
-      <c r="L2" s="19">
-        <v>0</v>
-      </c>
-      <c r="M2" s="19">
-        <v>0</v>
-      </c>
-      <c r="N2" s="19">
+      <c r="L2" s="15">
+        <v>0</v>
+      </c>
+      <c r="M2" s="15">
+        <v>0</v>
+      </c>
+      <c r="N2" s="15">
         <v>2718.0200514044745</v>
       </c>
-      <c r="O2" s="19">
+      <c r="O2" s="15">
         <v>886.46219784245181</v>
       </c>
-      <c r="P2" s="19">
+      <c r="P2" s="15">
         <v>918.04394452818201</v>
       </c>
-      <c r="Q2" s="19">
-        <v>0</v>
-      </c>
-      <c r="R2" s="19">
+      <c r="Q2" s="15">
+        <v>0</v>
+      </c>
+      <c r="R2" s="15">
         <v>1137.5431659286951</v>
       </c>
-      <c r="S2" s="19">
-        <v>0</v>
-      </c>
-      <c r="T2" s="19">
+      <c r="S2" s="15">
+        <v>0</v>
+      </c>
+      <c r="T2" s="15">
         <v>0</v>
       </c>
     </row>
@@ -1329,61 +1344,61 @@
       <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="19">
-        <v>0</v>
-      </c>
-      <c r="C3" s="19">
-        <v>0</v>
-      </c>
-      <c r="D3" s="19">
-        <v>0</v>
-      </c>
-      <c r="E3" s="19">
-        <v>0</v>
-      </c>
-      <c r="F3" s="19">
-        <v>0</v>
-      </c>
-      <c r="G3" s="19">
+      <c r="B3" s="15">
+        <v>0</v>
+      </c>
+      <c r="C3" s="15">
+        <v>0</v>
+      </c>
+      <c r="D3" s="15">
+        <v>0</v>
+      </c>
+      <c r="E3" s="15">
+        <v>0</v>
+      </c>
+      <c r="F3" s="15">
+        <v>0</v>
+      </c>
+      <c r="G3" s="15">
         <v>3178.7398560251131</v>
       </c>
-      <c r="H3" s="19">
-        <v>0</v>
-      </c>
-      <c r="I3" s="19">
-        <v>0</v>
-      </c>
-      <c r="J3" s="19">
-        <v>0</v>
-      </c>
-      <c r="K3" s="19">
+      <c r="H3" s="15">
+        <v>0</v>
+      </c>
+      <c r="I3" s="15">
+        <v>0</v>
+      </c>
+      <c r="J3" s="15">
+        <v>0</v>
+      </c>
+      <c r="K3" s="15">
         <v>222.98836658950603</v>
       </c>
-      <c r="L3" s="19">
-        <v>0</v>
-      </c>
-      <c r="M3" s="19">
-        <v>0</v>
-      </c>
-      <c r="N3" s="19">
-        <v>0</v>
-      </c>
-      <c r="O3" s="19">
-        <v>0</v>
-      </c>
-      <c r="P3" s="19">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="19">
-        <v>0</v>
-      </c>
-      <c r="R3" s="19">
-        <v>0</v>
-      </c>
-      <c r="S3" s="19">
-        <v>0</v>
-      </c>
-      <c r="T3" s="19">
+      <c r="L3" s="15">
+        <v>0</v>
+      </c>
+      <c r="M3" s="15">
+        <v>0</v>
+      </c>
+      <c r="N3" s="15">
+        <v>0</v>
+      </c>
+      <c r="O3" s="15">
+        <v>0</v>
+      </c>
+      <c r="P3" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="15">
+        <v>0</v>
+      </c>
+      <c r="R3" s="15">
+        <v>0</v>
+      </c>
+      <c r="S3" s="15">
+        <v>0</v>
+      </c>
+      <c r="T3" s="15">
         <v>0</v>
       </c>
     </row>
@@ -1391,61 +1406,61 @@
       <c r="A4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="19">
-        <v>0</v>
-      </c>
-      <c r="C4" s="19">
-        <v>0</v>
-      </c>
-      <c r="D4" s="19">
+      <c r="B4" s="15">
+        <v>0</v>
+      </c>
+      <c r="C4" s="15">
+        <v>0</v>
+      </c>
+      <c r="D4" s="15">
         <v>2609.2888385244732</v>
       </c>
-      <c r="E4" s="19">
+      <c r="E4" s="15">
         <v>317.25926296673083</v>
       </c>
-      <c r="F4" s="19">
+      <c r="F4" s="15">
         <v>50987.533310823659</v>
       </c>
-      <c r="G4" s="19">
+      <c r="G4" s="15">
         <v>76701.330952760836</v>
       </c>
-      <c r="H4" s="19">
+      <c r="H4" s="15">
         <v>6046.659157400366</v>
       </c>
-      <c r="I4" s="19">
+      <c r="I4" s="15">
         <v>9404.4335187021734</v>
       </c>
-      <c r="J4" s="19">
-        <v>0</v>
-      </c>
-      <c r="K4" s="19">
+      <c r="J4" s="15">
+        <v>0</v>
+      </c>
+      <c r="K4" s="15">
         <v>262.43107507181492</v>
       </c>
-      <c r="L4" s="19">
+      <c r="L4" s="15">
         <v>5438.8517688600468</v>
       </c>
-      <c r="M4" s="19">
-        <v>0</v>
-      </c>
-      <c r="N4" s="19">
-        <v>0</v>
-      </c>
-      <c r="O4" s="19">
-        <v>0</v>
-      </c>
-      <c r="P4" s="19">
+      <c r="M4" s="15">
+        <v>0</v>
+      </c>
+      <c r="N4" s="15">
+        <v>0</v>
+      </c>
+      <c r="O4" s="15">
+        <v>0</v>
+      </c>
+      <c r="P4" s="15">
         <v>271.42148142476839</v>
       </c>
-      <c r="Q4" s="19">
+      <c r="Q4" s="15">
         <v>727.43265876553619</v>
       </c>
-      <c r="R4" s="19">
+      <c r="R4" s="15">
         <v>174.06138257891513</v>
       </c>
-      <c r="S4" s="19">
-        <v>0</v>
-      </c>
-      <c r="T4" s="19">
+      <c r="S4" s="15">
+        <v>0</v>
+      </c>
+      <c r="T4" s="15">
         <v>0</v>
       </c>
     </row>
@@ -1453,61 +1468,61 @@
       <c r="A5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="19">
-        <v>0</v>
-      </c>
-      <c r="C5" s="19">
-        <v>0</v>
-      </c>
-      <c r="D5" s="19">
-        <v>0</v>
-      </c>
-      <c r="E5" s="19">
-        <v>0</v>
-      </c>
-      <c r="F5" s="19">
-        <v>0</v>
-      </c>
-      <c r="G5" s="19">
+      <c r="B5" s="15">
+        <v>0</v>
+      </c>
+      <c r="C5" s="15">
+        <v>0</v>
+      </c>
+      <c r="D5" s="15">
+        <v>0</v>
+      </c>
+      <c r="E5" s="15">
+        <v>0</v>
+      </c>
+      <c r="F5" s="15">
+        <v>0</v>
+      </c>
+      <c r="G5" s="15">
         <v>16414.065516371655</v>
       </c>
-      <c r="H5" s="19">
+      <c r="H5" s="15">
         <v>1219.4788433714875</v>
       </c>
-      <c r="I5" s="19">
+      <c r="I5" s="15">
         <v>10806.939886526419</v>
       </c>
-      <c r="J5" s="19">
-        <v>0</v>
-      </c>
-      <c r="K5" s="19">
-        <v>0</v>
-      </c>
-      <c r="L5" s="19">
-        <v>0</v>
-      </c>
-      <c r="M5" s="19">
-        <v>0</v>
-      </c>
-      <c r="N5" s="19">
-        <v>0</v>
-      </c>
-      <c r="O5" s="19">
-        <v>0</v>
-      </c>
-      <c r="P5" s="19">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="19">
-        <v>0</v>
-      </c>
-      <c r="R5" s="19">
-        <v>0</v>
-      </c>
-      <c r="S5" s="19">
-        <v>0</v>
-      </c>
-      <c r="T5" s="19">
+      <c r="J5" s="15">
+        <v>0</v>
+      </c>
+      <c r="K5" s="15">
+        <v>0</v>
+      </c>
+      <c r="L5" s="15">
+        <v>0</v>
+      </c>
+      <c r="M5" s="15">
+        <v>0</v>
+      </c>
+      <c r="N5" s="15">
+        <v>0</v>
+      </c>
+      <c r="O5" s="15">
+        <v>0</v>
+      </c>
+      <c r="P5" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="15">
+        <v>0</v>
+      </c>
+      <c r="R5" s="15">
+        <v>0</v>
+      </c>
+      <c r="S5" s="15">
+        <v>0</v>
+      </c>
+      <c r="T5" s="15">
         <v>0</v>
       </c>
     </row>
@@ -1515,61 +1530,61 @@
       <c r="A6" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="19">
+      <c r="B6" s="15">
         <v>2885.7412041686644</v>
       </c>
-      <c r="C6" s="19">
+      <c r="C6" s="15">
         <v>797.1984585227757</v>
       </c>
-      <c r="D6" s="19">
+      <c r="D6" s="15">
         <v>2208.2876356382758</v>
       </c>
-      <c r="E6" s="19">
+      <c r="E6" s="15">
         <v>559.81416317827245</v>
       </c>
-      <c r="F6" s="19">
+      <c r="F6" s="15">
         <v>3916.5218982398278</v>
       </c>
-      <c r="G6" s="19">
+      <c r="G6" s="15">
         <v>20633.990024041537</v>
       </c>
-      <c r="H6" s="19">
+      <c r="H6" s="15">
         <v>6590.8809295568662</v>
       </c>
-      <c r="I6" s="19">
+      <c r="I6" s="15">
         <v>5367.4038745119633</v>
       </c>
-      <c r="J6" s="19">
+      <c r="J6" s="15">
         <v>3464.7088628540437</v>
       </c>
-      <c r="K6" s="19">
+      <c r="K6" s="15">
         <v>1043.0270626923859</v>
       </c>
-      <c r="L6" s="19">
+      <c r="L6" s="15">
         <v>23430.521467530121</v>
       </c>
-      <c r="M6" s="19">
+      <c r="M6" s="15">
         <v>1357.2994570428377</v>
       </c>
-      <c r="N6" s="19">
+      <c r="N6" s="15">
         <v>2290.5296416161941</v>
       </c>
-      <c r="O6" s="19">
+      <c r="O6" s="15">
         <v>6694.7117564172249</v>
       </c>
-      <c r="P6" s="19">
+      <c r="P6" s="15">
         <v>1699.1322673362681</v>
       </c>
-      <c r="Q6" s="19">
+      <c r="Q6" s="15">
         <v>1818.3733509191352</v>
       </c>
-      <c r="R6" s="19">
+      <c r="R6" s="15">
         <v>1065.3595604988786</v>
       </c>
-      <c r="S6" s="19">
-        <v>0</v>
-      </c>
-      <c r="T6" s="19">
+      <c r="S6" s="15">
+        <v>0</v>
+      </c>
+      <c r="T6" s="15">
         <v>0</v>
       </c>
     </row>
@@ -1577,61 +1592,61 @@
       <c r="A7" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="19">
+      <c r="B7" s="15">
         <v>10744.092650606925</v>
       </c>
-      <c r="C7" s="19">
+      <c r="C7" s="15">
         <v>2580.8109043611512</v>
       </c>
-      <c r="D7" s="19">
+      <c r="D7" s="15">
         <v>9405.4305141845125</v>
       </c>
-      <c r="E7" s="19">
+      <c r="E7" s="15">
         <v>2192.6838346266377</v>
       </c>
-      <c r="F7" s="19">
+      <c r="F7" s="15">
         <v>2391.0617131859581</v>
       </c>
-      <c r="G7" s="19">
+      <c r="G7" s="15">
         <v>46305.231639169535</v>
       </c>
-      <c r="H7" s="19">
+      <c r="H7" s="15">
         <v>10745.181931504221</v>
       </c>
-      <c r="I7" s="19">
+      <c r="I7" s="15">
         <v>155210.23743914702</v>
       </c>
-      <c r="J7" s="19">
+      <c r="J7" s="15">
         <v>25174.531446967776</v>
       </c>
-      <c r="K7" s="19">
+      <c r="K7" s="15">
         <v>4597.5722826386109</v>
       </c>
-      <c r="L7" s="19">
+      <c r="L7" s="15">
         <v>27428.234661705552</v>
       </c>
-      <c r="M7" s="19">
+      <c r="M7" s="15">
         <v>2955.9619816861191</v>
       </c>
-      <c r="N7" s="19">
+      <c r="N7" s="15">
         <v>12854.377380677024</v>
       </c>
-      <c r="O7" s="19">
+      <c r="O7" s="15">
         <v>20501.720130790978</v>
       </c>
-      <c r="P7" s="19">
+      <c r="P7" s="15">
         <v>9420.417908585121</v>
       </c>
-      <c r="Q7" s="19">
+      <c r="Q7" s="15">
         <v>15996.356059624042</v>
       </c>
-      <c r="R7" s="19">
+      <c r="R7" s="15">
         <v>6713.6926138342924</v>
       </c>
-      <c r="S7" s="19">
-        <v>0</v>
-      </c>
-      <c r="T7" s="19">
+      <c r="S7" s="15">
+        <v>0</v>
+      </c>
+      <c r="T7" s="15">
         <v>0</v>
       </c>
     </row>
@@ -1639,61 +1654,61 @@
       <c r="A8" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="19">
+      <c r="B8" s="15">
         <v>888.37275548603236</v>
       </c>
-      <c r="C8" s="19">
+      <c r="C8" s="15">
         <v>163.69607394494821</v>
       </c>
-      <c r="D8" s="19">
+      <c r="D8" s="15">
         <v>904.89909637814947</v>
       </c>
-      <c r="E8" s="19">
+      <c r="E8" s="15">
         <v>173.03865029584821</v>
       </c>
-      <c r="F8" s="19">
+      <c r="F8" s="15">
         <v>1992.6372551702816</v>
       </c>
-      <c r="G8" s="19">
+      <c r="G8" s="15">
         <v>20154.986684197716</v>
       </c>
-      <c r="H8" s="19">
+      <c r="H8" s="15">
         <v>1013.3585509742413</v>
       </c>
-      <c r="I8" s="19">
+      <c r="I8" s="15">
         <v>5777.7842139455197</v>
       </c>
-      <c r="J8" s="19">
+      <c r="J8" s="15">
         <v>10374.435893288268</v>
       </c>
-      <c r="K8" s="19">
+      <c r="K8" s="15">
         <v>1308.4272033892264</v>
       </c>
-      <c r="L8" s="19">
+      <c r="L8" s="15">
         <v>7896.4542076182561</v>
       </c>
-      <c r="M8" s="19">
+      <c r="M8" s="15">
         <v>1587.8365916025959</v>
       </c>
-      <c r="N8" s="19">
+      <c r="N8" s="15">
         <v>3181.4465720835715</v>
       </c>
-      <c r="O8" s="19">
+      <c r="O8" s="15">
         <v>5300.8590533831511</v>
       </c>
-      <c r="P8" s="19">
+      <c r="P8" s="15">
         <v>2269.7363719415612</v>
       </c>
-      <c r="Q8" s="19">
+      <c r="Q8" s="15">
         <v>2843.4680235173851</v>
       </c>
-      <c r="R8" s="19">
+      <c r="R8" s="15">
         <v>1055.1631326036202</v>
       </c>
-      <c r="S8" s="19">
-        <v>0</v>
-      </c>
-      <c r="T8" s="19">
+      <c r="S8" s="15">
+        <v>0</v>
+      </c>
+      <c r="T8" s="15">
         <v>0</v>
       </c>
     </row>
@@ -1701,61 +1716,61 @@
       <c r="A9" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="19">
+      <c r="B9" s="15">
         <v>1751.1482000652579</v>
       </c>
-      <c r="C9" s="19">
+      <c r="C9" s="15">
         <v>310.92433655932393</v>
       </c>
-      <c r="D9" s="19">
+      <c r="D9" s="15">
         <v>2039.2581631708397</v>
       </c>
-      <c r="E9" s="19">
+      <c r="E9" s="15">
         <v>421.31146827803849</v>
       </c>
-      <c r="F9" s="19">
+      <c r="F9" s="15">
         <v>6456.5514666018271</v>
       </c>
-      <c r="G9" s="19">
+      <c r="G9" s="15">
         <v>49097.473869884125</v>
       </c>
-      <c r="H9" s="19">
+      <c r="H9" s="15">
         <v>4426.4519879822683</v>
       </c>
-      <c r="I9" s="19">
+      <c r="I9" s="15">
         <v>11141.839096359181</v>
       </c>
-      <c r="J9" s="19">
+      <c r="J9" s="15">
         <v>17466.158917447403</v>
       </c>
-      <c r="K9" s="19">
+      <c r="K9" s="15">
         <v>2835.6687284632185</v>
       </c>
-      <c r="L9" s="19">
+      <c r="L9" s="15">
         <v>23260.537526573222</v>
       </c>
-      <c r="M9" s="19">
+      <c r="M9" s="15">
         <v>3112.932185071882</v>
       </c>
-      <c r="N9" s="19">
+      <c r="N9" s="15">
         <v>9238.6216193190448</v>
       </c>
-      <c r="O9" s="19">
+      <c r="O9" s="15">
         <v>17605.866222025172</v>
       </c>
-      <c r="P9" s="19">
+      <c r="P9" s="15">
         <v>5321.6242624246315</v>
       </c>
-      <c r="Q9" s="19">
+      <c r="Q9" s="15">
         <v>7938.645528383011</v>
       </c>
-      <c r="R9" s="19">
+      <c r="R9" s="15">
         <v>3146.469850418734</v>
       </c>
-      <c r="S9" s="19">
-        <v>0</v>
-      </c>
-      <c r="T9" s="19">
+      <c r="S9" s="15">
+        <v>0</v>
+      </c>
+      <c r="T9" s="15">
         <v>0</v>
       </c>
     </row>
@@ -1763,61 +1778,61 @@
       <c r="A10" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="19">
+      <c r="B10" s="15">
         <v>560.50424855884035</v>
       </c>
-      <c r="C10" s="19">
+      <c r="C10" s="15">
         <v>104.74198979149634</v>
       </c>
-      <c r="D10" s="19">
+      <c r="D10" s="15">
         <v>522.83943805566798</v>
       </c>
-      <c r="E10" s="19">
+      <c r="E10" s="15">
         <v>124.7768506564435</v>
       </c>
-      <c r="F10" s="19">
+      <c r="F10" s="15">
         <v>1785.6482818722618</v>
       </c>
-      <c r="G10" s="19">
+      <c r="G10" s="15">
         <v>7534.3540716357393</v>
       </c>
-      <c r="H10" s="19">
+      <c r="H10" s="15">
         <v>793.09675706244377</v>
       </c>
-      <c r="I10" s="19">
+      <c r="I10" s="15">
         <v>5399.6057216112931</v>
       </c>
-      <c r="J10" s="19">
+      <c r="J10" s="15">
         <v>2740.4671806252122</v>
       </c>
-      <c r="K10" s="19">
+      <c r="K10" s="15">
         <v>406.3967403696351</v>
       </c>
-      <c r="L10" s="19">
+      <c r="L10" s="15">
         <v>2573.4187747095825</v>
       </c>
-      <c r="M10" s="19">
+      <c r="M10" s="15">
         <v>475.23858287089223</v>
       </c>
-      <c r="N10" s="19">
+      <c r="N10" s="15">
         <v>894.26757332319357</v>
       </c>
-      <c r="O10" s="19">
+      <c r="O10" s="15">
         <v>1539.5055621692195</v>
       </c>
-      <c r="P10" s="19">
+      <c r="P10" s="15">
         <v>706.67878920850058</v>
       </c>
-      <c r="Q10" s="19">
+      <c r="Q10" s="15">
         <v>898.18911571054457</v>
       </c>
-      <c r="R10" s="19">
+      <c r="R10" s="15">
         <v>426.90882791784884</v>
       </c>
-      <c r="S10" s="19">
-        <v>0</v>
-      </c>
-      <c r="T10" s="19">
+      <c r="S10" s="15">
+        <v>0</v>
+      </c>
+      <c r="T10" s="15">
         <v>0</v>
       </c>
     </row>
@@ -1825,61 +1840,61 @@
       <c r="A11" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="19">
+      <c r="B11" s="15">
         <v>544.1176124084576</v>
       </c>
-      <c r="C11" s="19">
-        <v>0</v>
-      </c>
-      <c r="D11" s="19">
+      <c r="C11" s="15">
+        <v>0</v>
+      </c>
+      <c r="D11" s="15">
         <v>398.63198720078532</v>
       </c>
-      <c r="E11" s="19">
-        <v>0</v>
-      </c>
-      <c r="F11" s="19">
+      <c r="E11" s="15">
+        <v>0</v>
+      </c>
+      <c r="F11" s="15">
         <v>1400.3009736361241</v>
       </c>
-      <c r="G11" s="19">
+      <c r="G11" s="15">
         <v>6562.3457558603532</v>
       </c>
-      <c r="H11" s="19">
+      <c r="H11" s="15">
         <v>648.82721078746636</v>
       </c>
-      <c r="I11" s="19">
+      <c r="I11" s="15">
         <v>5409.9103126830705</v>
       </c>
-      <c r="J11" s="19">
+      <c r="J11" s="15">
         <v>3261.4483323250588</v>
       </c>
-      <c r="K11" s="19">
+      <c r="K11" s="15">
         <v>344.20268711335109</v>
       </c>
-      <c r="L11" s="19">
+      <c r="L11" s="15">
         <v>2916.9714064936843</v>
       </c>
-      <c r="M11" s="19">
+      <c r="M11" s="15">
         <v>556.66282980445101</v>
       </c>
-      <c r="N11" s="19">
+      <c r="N11" s="15">
         <v>1022.2422766289988</v>
       </c>
-      <c r="O11" s="19">
+      <c r="O11" s="15">
         <v>2084.5785015551728</v>
       </c>
-      <c r="P11" s="19">
+      <c r="P11" s="15">
         <v>697.39484094465843</v>
       </c>
-      <c r="Q11" s="19">
+      <c r="Q11" s="15">
         <v>1674.3132763953165</v>
       </c>
-      <c r="R11" s="19">
+      <c r="R11" s="15">
         <v>490.39458499090966</v>
       </c>
-      <c r="S11" s="19">
-        <v>0</v>
-      </c>
-      <c r="T11" s="19">
+      <c r="S11" s="15">
+        <v>0</v>
+      </c>
+      <c r="T11" s="15">
         <v>0</v>
       </c>
     </row>
@@ -1887,61 +1902,61 @@
       <c r="A12" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="19">
+      <c r="B12" s="15">
         <v>1737.1613933554715</v>
       </c>
-      <c r="C12" s="19">
+      <c r="C12" s="15">
         <v>512.78820627010634</v>
       </c>
-      <c r="D12" s="19">
+      <c r="D12" s="15">
         <v>2618.9782018665951</v>
       </c>
-      <c r="E12" s="19">
+      <c r="E12" s="15">
         <v>1139.9580407230524</v>
       </c>
-      <c r="F12" s="19">
+      <c r="F12" s="15">
         <v>7484.7321563119785</v>
       </c>
-      <c r="G12" s="19">
+      <c r="G12" s="15">
         <v>17584.949533881827</v>
       </c>
-      <c r="H12" s="19">
+      <c r="H12" s="15">
         <v>2410.9215620818454</v>
       </c>
-      <c r="I12" s="19">
+      <c r="I12" s="15">
         <v>17707.293371092543</v>
       </c>
-      <c r="J12" s="19">
+      <c r="J12" s="15">
         <v>37234.868460711084</v>
       </c>
-      <c r="K12" s="19">
+      <c r="K12" s="15">
         <v>843.61751200137314</v>
       </c>
-      <c r="L12" s="19">
+      <c r="L12" s="15">
         <v>17474.225056374249</v>
       </c>
-      <c r="M12" s="19">
+      <c r="M12" s="15">
         <v>1649.2112417026085</v>
       </c>
-      <c r="N12" s="19">
+      <c r="N12" s="15">
         <v>2732.2263697266617</v>
       </c>
-      <c r="O12" s="19">
+      <c r="O12" s="15">
         <v>4280.593150014437</v>
       </c>
-      <c r="P12" s="19">
+      <c r="P12" s="15">
         <v>4184.8913231900078</v>
       </c>
-      <c r="Q12" s="19">
+      <c r="Q12" s="15">
         <v>3163.6098999919709</v>
       </c>
-      <c r="R12" s="19">
+      <c r="R12" s="15">
         <v>1596.2895250710305</v>
       </c>
-      <c r="S12" s="19">
-        <v>0</v>
-      </c>
-      <c r="T12" s="19">
+      <c r="S12" s="15">
+        <v>0</v>
+      </c>
+      <c r="T12" s="15">
         <v>0</v>
       </c>
     </row>
@@ -1949,61 +1964,61 @@
       <c r="A13" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="19">
+      <c r="B13" s="15">
         <v>627.93805535182901</v>
       </c>
-      <c r="C13" s="19">
+      <c r="C13" s="15">
         <v>122.55720034591543</v>
       </c>
-      <c r="D13" s="19">
+      <c r="D13" s="15">
         <v>803.73565579961769</v>
       </c>
-      <c r="E13" s="19">
+      <c r="E13" s="15">
         <v>178.44854773558973</v>
       </c>
-      <c r="F13" s="19">
+      <c r="F13" s="15">
         <v>2441.5323273323052</v>
       </c>
-      <c r="G13" s="19">
+      <c r="G13" s="15">
         <v>10939.257196888651</v>
       </c>
-      <c r="H13" s="19">
+      <c r="H13" s="15">
         <v>1343.944115566904</v>
       </c>
-      <c r="I13" s="19">
+      <c r="I13" s="15">
         <v>8686.2550439546558</v>
       </c>
-      <c r="J13" s="19">
+      <c r="J13" s="15">
         <v>3820.9714569822918</v>
       </c>
-      <c r="K13" s="19">
+      <c r="K13" s="15">
         <v>523.58206874680786</v>
       </c>
-      <c r="L13" s="19">
+      <c r="L13" s="15">
         <v>6666.3455545645711</v>
       </c>
-      <c r="M13" s="19">
+      <c r="M13" s="15">
         <v>8960.4101066472504</v>
       </c>
-      <c r="N13" s="19">
+      <c r="N13" s="15">
         <v>2647.6132126742928</v>
       </c>
-      <c r="O13" s="19">
+      <c r="O13" s="15">
         <v>2504.2433864576365</v>
       </c>
-      <c r="P13" s="19">
+      <c r="P13" s="15">
         <v>1692.3916050541507</v>
       </c>
-      <c r="Q13" s="19">
+      <c r="Q13" s="15">
         <v>1253.5450199340596</v>
       </c>
-      <c r="R13" s="19">
+      <c r="R13" s="15">
         <v>1033.6419835623976</v>
       </c>
-      <c r="S13" s="19">
-        <v>0</v>
-      </c>
-      <c r="T13" s="19">
+      <c r="S13" s="15">
+        <v>0</v>
+      </c>
+      <c r="T13" s="15">
         <v>0</v>
       </c>
     </row>
@@ -2011,61 +2026,61 @@
       <c r="A14" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="19">
+      <c r="B14" s="15">
         <v>750.08463807410578</v>
       </c>
-      <c r="C14" s="19">
+      <c r="C14" s="15">
         <v>281.71281983595463</v>
       </c>
-      <c r="D14" s="19">
+      <c r="D14" s="15">
         <v>569.58996471319244</v>
       </c>
-      <c r="E14" s="19">
+      <c r="E14" s="15">
         <v>136.54016681697343</v>
       </c>
-      <c r="F14" s="19">
+      <c r="F14" s="15">
         <v>2922.2905709257657</v>
       </c>
-      <c r="G14" s="19">
+      <c r="G14" s="15">
         <v>18036.318065657739</v>
       </c>
-      <c r="H14" s="19">
+      <c r="H14" s="15">
         <v>1792.9541472890269</v>
       </c>
-      <c r="I14" s="19">
+      <c r="I14" s="15">
         <v>10105.712464091976</v>
       </c>
-      <c r="J14" s="19">
+      <c r="J14" s="15">
         <v>24389.094680724185</v>
       </c>
-      <c r="K14" s="19">
+      <c r="K14" s="15">
         <v>802.75811972222164</v>
       </c>
-      <c r="L14" s="19">
+      <c r="L14" s="15">
         <v>6391.1459777841374</v>
       </c>
-      <c r="M14" s="19">
+      <c r="M14" s="15">
         <v>1633.1701399719236</v>
       </c>
-      <c r="N14" s="19">
+      <c r="N14" s="15">
         <v>4087.5210565684865</v>
       </c>
-      <c r="O14" s="19">
+      <c r="O14" s="15">
         <v>8726.4816192607359</v>
       </c>
-      <c r="P14" s="19">
+      <c r="P14" s="15">
         <v>3642.3277372678913</v>
       </c>
-      <c r="Q14" s="19">
+      <c r="Q14" s="15">
         <v>5382.3285628643571</v>
       </c>
-      <c r="R14" s="19">
+      <c r="R14" s="15">
         <v>3094.4931496939912</v>
       </c>
-      <c r="S14" s="19">
-        <v>0</v>
-      </c>
-      <c r="T14" s="19">
+      <c r="S14" s="15">
+        <v>0</v>
+      </c>
+      <c r="T14" s="15">
         <v>0</v>
       </c>
     </row>
@@ -2073,61 +2088,61 @@
       <c r="A15" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="19">
+      <c r="B15" s="15">
         <v>311.23387371722555</v>
       </c>
-      <c r="C15" s="19">
+      <c r="C15" s="15">
         <v>56.732213588736805</v>
       </c>
-      <c r="D15" s="19">
+      <c r="D15" s="15">
         <v>384.50840405762557</v>
       </c>
-      <c r="E15" s="19">
+      <c r="E15" s="15">
         <v>67.22964309790143</v>
       </c>
-      <c r="F15" s="19">
+      <c r="F15" s="15">
         <v>1243.3402851555006</v>
       </c>
-      <c r="G15" s="19">
+      <c r="G15" s="15">
         <v>3970.9376873052797</v>
       </c>
-      <c r="H15" s="19">
+      <c r="H15" s="15">
         <v>496.84271551382676</v>
       </c>
-      <c r="I15" s="19">
+      <c r="I15" s="15">
         <v>2725.5368458361104</v>
       </c>
-      <c r="J15" s="19">
+      <c r="J15" s="15">
         <v>1445.9885026771246</v>
       </c>
-      <c r="K15" s="19">
+      <c r="K15" s="15">
         <v>207.20330257056591</v>
       </c>
-      <c r="L15" s="19">
+      <c r="L15" s="15">
         <v>1415.837383549637</v>
       </c>
-      <c r="M15" s="19">
+      <c r="M15" s="15">
         <v>287.09220627086489</v>
       </c>
-      <c r="N15" s="19">
+      <c r="N15" s="15">
         <v>508.78706454284043</v>
       </c>
-      <c r="O15" s="19">
+      <c r="O15" s="15">
         <v>870.68464886284107</v>
       </c>
-      <c r="P15" s="19">
+      <c r="P15" s="15">
         <v>395.1305875239255</v>
       </c>
-      <c r="Q15" s="19">
+      <c r="Q15" s="15">
         <v>534.13574762421899</v>
       </c>
-      <c r="R15" s="19">
+      <c r="R15" s="15">
         <v>284.99851740026486</v>
       </c>
-      <c r="S15" s="19">
-        <v>0</v>
-      </c>
-      <c r="T15" s="19">
+      <c r="S15" s="15">
+        <v>0</v>
+      </c>
+      <c r="T15" s="15">
         <v>0</v>
       </c>
     </row>
@@ -2135,61 +2150,61 @@
       <c r="A16" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="19">
+      <c r="B16" s="15">
         <v>283.43695146271295</v>
       </c>
-      <c r="C16" s="19">
+      <c r="C16" s="15">
         <v>58.662976161146197</v>
       </c>
-      <c r="D16" s="19">
+      <c r="D16" s="15">
         <v>261.12848570113067</v>
       </c>
-      <c r="E16" s="19">
+      <c r="E16" s="15">
         <v>56.716085659694293</v>
       </c>
-      <c r="F16" s="19">
+      <c r="F16" s="15">
         <v>921.4826936081547</v>
       </c>
-      <c r="G16" s="19">
+      <c r="G16" s="15">
         <v>2669.1539952528015</v>
       </c>
-      <c r="H16" s="19">
+      <c r="H16" s="15">
         <v>391.1479142321586</v>
       </c>
-      <c r="I16" s="19">
-        <v>0</v>
-      </c>
-      <c r="J16" s="19">
+      <c r="I16" s="15">
+        <v>0</v>
+      </c>
+      <c r="J16" s="15">
         <v>710.76714267621901</v>
       </c>
-      <c r="K16" s="19">
+      <c r="K16" s="15">
         <v>188.34314024556895</v>
       </c>
-      <c r="L16" s="19">
+      <c r="L16" s="15">
         <v>1292.7751350295428</v>
       </c>
-      <c r="M16" s="19">
+      <c r="M16" s="15">
         <v>235.72942323810426</v>
       </c>
-      <c r="N16" s="19">
+      <c r="N16" s="15">
         <v>437.10228912615162</v>
       </c>
-      <c r="O16" s="19">
+      <c r="O16" s="15">
         <v>754.9703051624881</v>
       </c>
-      <c r="P16" s="19">
+      <c r="P16" s="15">
         <v>322.16654400522344</v>
       </c>
-      <c r="Q16" s="19">
+      <c r="Q16" s="15">
         <v>443.04122321143882</v>
       </c>
-      <c r="R16" s="19">
+      <c r="R16" s="15">
         <v>213.62947048502423</v>
       </c>
-      <c r="S16" s="19">
-        <v>0</v>
-      </c>
-      <c r="T16" s="19">
+      <c r="S16" s="15">
+        <v>0</v>
+      </c>
+      <c r="T16" s="15">
         <v>0</v>
       </c>
     </row>
@@ -2197,61 +2212,61 @@
       <c r="A17" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="19">
+      <c r="B17" s="15">
         <v>195.81529393700967</v>
       </c>
-      <c r="C17" s="19">
+      <c r="C17" s="15">
         <v>42.700343574720016</v>
       </c>
-      <c r="D17" s="19">
+      <c r="D17" s="15">
         <v>185.45864440127272</v>
       </c>
-      <c r="E17" s="19">
+      <c r="E17" s="15">
         <v>44.903520638822144</v>
       </c>
-      <c r="F17" s="19">
+      <c r="F17" s="15">
         <v>749.5313775760111</v>
       </c>
-      <c r="G17" s="19">
+      <c r="G17" s="15">
         <v>1643.3499197718797</v>
       </c>
-      <c r="H17" s="19">
+      <c r="H17" s="15">
         <v>313.2269293456734</v>
       </c>
-      <c r="I17" s="19">
+      <c r="I17" s="15">
         <v>2137.1572466295534</v>
       </c>
-      <c r="J17" s="19">
+      <c r="J17" s="15">
         <v>952.65124882257624</v>
       </c>
-      <c r="K17" s="19">
+      <c r="K17" s="15">
         <v>149.92344092187201</v>
       </c>
-      <c r="L17" s="19">
+      <c r="L17" s="15">
         <v>946.82791144636815</v>
       </c>
-      <c r="M17" s="19">
+      <c r="M17" s="15">
         <v>190.26891721679934</v>
       </c>
-      <c r="N17" s="19">
+      <c r="N17" s="15">
         <v>373.72245720285963</v>
       </c>
-      <c r="O17" s="19">
+      <c r="O17" s="15">
         <v>632.12141891148838</v>
       </c>
-      <c r="P17" s="19">
+      <c r="P17" s="15">
         <v>247.74265680471115</v>
       </c>
-      <c r="Q17" s="19">
+      <c r="Q17" s="15">
         <v>332.30583750554877</v>
       </c>
-      <c r="R17" s="19">
+      <c r="R17" s="15">
         <v>175.19878249969133</v>
       </c>
-      <c r="S17" s="19">
-        <v>0</v>
-      </c>
-      <c r="T17" s="19">
+      <c r="S17" s="15">
+        <v>0</v>
+      </c>
+      <c r="T17" s="15">
         <v>0</v>
       </c>
     </row>
@@ -2259,61 +2274,61 @@
       <c r="A18" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="19">
+      <c r="B18" s="15">
         <v>288.67650104462075</v>
       </c>
-      <c r="C18" s="19">
+      <c r="C18" s="15">
         <v>74.124091550992034</v>
       </c>
-      <c r="D18" s="19">
+      <c r="D18" s="15">
         <v>284.87052264347199</v>
       </c>
-      <c r="E18" s="19">
+      <c r="E18" s="15">
         <v>63.358867621378032</v>
       </c>
-      <c r="F18" s="19">
+      <c r="F18" s="15">
         <v>1040.9668132099778</v>
       </c>
-      <c r="G18" s="19">
+      <c r="G18" s="15">
         <v>4528.4238820619739</v>
       </c>
-      <c r="H18" s="19">
+      <c r="H18" s="15">
         <v>341.77224064072237</v>
       </c>
-      <c r="I18" s="19">
+      <c r="I18" s="15">
         <v>2467.6919469138638</v>
       </c>
-      <c r="J18" s="19">
+      <c r="J18" s="15">
         <v>1867.2628993697622</v>
       </c>
-      <c r="K18" s="19">
+      <c r="K18" s="15">
         <v>183.90705381375153</v>
       </c>
-      <c r="L18" s="19">
+      <c r="L18" s="15">
         <v>1255.679157799937</v>
       </c>
-      <c r="M18" s="19">
+      <c r="M18" s="15">
         <v>246.15985960567554</v>
       </c>
-      <c r="N18" s="19">
+      <c r="N18" s="15">
         <v>723.75134772137324</v>
       </c>
-      <c r="O18" s="19">
+      <c r="O18" s="15">
         <v>1489.051867351317</v>
       </c>
-      <c r="P18" s="19">
+      <c r="P18" s="15">
         <v>345.51784139755506</v>
       </c>
-      <c r="Q18" s="19">
+      <c r="Q18" s="15">
         <v>419.92623410782096</v>
       </c>
-      <c r="R18" s="19">
+      <c r="R18" s="15">
         <v>286.47491001313165</v>
       </c>
-      <c r="S18" s="19">
-        <v>0</v>
-      </c>
-      <c r="T18" s="19">
+      <c r="S18" s="15">
+        <v>0</v>
+      </c>
+      <c r="T18" s="15">
         <v>0</v>
       </c>
     </row>
@@ -2321,61 +2336,61 @@
       <c r="A19" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="19">
-        <v>0</v>
-      </c>
-      <c r="C19" s="19">
-        <v>0</v>
-      </c>
-      <c r="D19" s="19">
-        <v>0</v>
-      </c>
-      <c r="E19" s="19">
-        <v>0</v>
-      </c>
-      <c r="F19" s="19">
-        <v>0</v>
-      </c>
-      <c r="G19" s="19">
-        <v>0</v>
-      </c>
-      <c r="H19" s="19">
-        <v>0</v>
-      </c>
-      <c r="I19" s="19">
-        <v>0</v>
-      </c>
-      <c r="J19" s="19">
-        <v>0</v>
-      </c>
-      <c r="K19" s="19">
-        <v>0</v>
-      </c>
-      <c r="L19" s="19">
-        <v>0</v>
-      </c>
-      <c r="M19" s="19">
-        <v>0</v>
-      </c>
-      <c r="N19" s="19">
-        <v>0</v>
-      </c>
-      <c r="O19" s="19">
-        <v>0</v>
-      </c>
-      <c r="P19" s="19">
-        <v>0</v>
-      </c>
-      <c r="Q19" s="19">
-        <v>0</v>
-      </c>
-      <c r="R19" s="19">
-        <v>0</v>
-      </c>
-      <c r="S19" s="19">
-        <v>0</v>
-      </c>
-      <c r="T19" s="19">
+      <c r="B19" s="15">
+        <v>0</v>
+      </c>
+      <c r="C19" s="15">
+        <v>0</v>
+      </c>
+      <c r="D19" s="15">
+        <v>0</v>
+      </c>
+      <c r="E19" s="15">
+        <v>0</v>
+      </c>
+      <c r="F19" s="15">
+        <v>0</v>
+      </c>
+      <c r="G19" s="15">
+        <v>0</v>
+      </c>
+      <c r="H19" s="15">
+        <v>0</v>
+      </c>
+      <c r="I19" s="15">
+        <v>0</v>
+      </c>
+      <c r="J19" s="15">
+        <v>0</v>
+      </c>
+      <c r="K19" s="15">
+        <v>0</v>
+      </c>
+      <c r="L19" s="15">
+        <v>0</v>
+      </c>
+      <c r="M19" s="15">
+        <v>0</v>
+      </c>
+      <c r="N19" s="15">
+        <v>0</v>
+      </c>
+      <c r="O19" s="15">
+        <v>0</v>
+      </c>
+      <c r="P19" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="15">
+        <v>0</v>
+      </c>
+      <c r="R19" s="15">
+        <v>0</v>
+      </c>
+      <c r="S19" s="15">
+        <v>0</v>
+      </c>
+      <c r="T19" s="15">
         <v>0</v>
       </c>
     </row>
@@ -2383,61 +2398,61 @@
       <c r="A20" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="19">
-        <v>0</v>
-      </c>
-      <c r="C20" s="19">
-        <v>0</v>
-      </c>
-      <c r="D20" s="19">
-        <v>0</v>
-      </c>
-      <c r="E20" s="19">
-        <v>0</v>
-      </c>
-      <c r="F20" s="19">
-        <v>0</v>
-      </c>
-      <c r="G20" s="19">
-        <v>0</v>
-      </c>
-      <c r="H20" s="19">
-        <v>0</v>
-      </c>
-      <c r="I20" s="19">
-        <v>0</v>
-      </c>
-      <c r="J20" s="19">
-        <v>0</v>
-      </c>
-      <c r="K20" s="19">
-        <v>0</v>
-      </c>
-      <c r="L20" s="19">
-        <v>0</v>
-      </c>
-      <c r="M20" s="19">
-        <v>0</v>
-      </c>
-      <c r="N20" s="19">
-        <v>0</v>
-      </c>
-      <c r="O20" s="19">
-        <v>0</v>
-      </c>
-      <c r="P20" s="19">
-        <v>0</v>
-      </c>
-      <c r="Q20" s="19">
-        <v>0</v>
-      </c>
-      <c r="R20" s="19">
-        <v>0</v>
-      </c>
-      <c r="S20" s="19">
-        <v>0</v>
-      </c>
-      <c r="T20" s="19">
+      <c r="B20" s="15">
+        <v>0</v>
+      </c>
+      <c r="C20" s="15">
+        <v>0</v>
+      </c>
+      <c r="D20" s="15">
+        <v>0</v>
+      </c>
+      <c r="E20" s="15">
+        <v>0</v>
+      </c>
+      <c r="F20" s="15">
+        <v>0</v>
+      </c>
+      <c r="G20" s="15">
+        <v>0</v>
+      </c>
+      <c r="H20" s="15">
+        <v>0</v>
+      </c>
+      <c r="I20" s="15">
+        <v>0</v>
+      </c>
+      <c r="J20" s="15">
+        <v>0</v>
+      </c>
+      <c r="K20" s="15">
+        <v>0</v>
+      </c>
+      <c r="L20" s="15">
+        <v>0</v>
+      </c>
+      <c r="M20" s="15">
+        <v>0</v>
+      </c>
+      <c r="N20" s="15">
+        <v>0</v>
+      </c>
+      <c r="O20" s="15">
+        <v>0</v>
+      </c>
+      <c r="P20" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="15">
+        <v>0</v>
+      </c>
+      <c r="R20" s="15">
+        <v>0</v>
+      </c>
+      <c r="S20" s="15">
+        <v>0</v>
+      </c>
+      <c r="T20" s="15">
         <v>0</v>
       </c>
     </row>
@@ -2445,61 +2460,61 @@
       <c r="A21" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B21" s="20">
+      <c r="B21" s="16">
         <v>8356.9417098268659</v>
       </c>
-      <c r="C21" s="20">
+      <c r="C21" s="16">
         <v>351.43128638086364</v>
       </c>
-      <c r="D21" s="20">
+      <c r="D21" s="16">
         <v>30612.563377791714</v>
       </c>
-      <c r="E21" s="20">
+      <c r="E21" s="16">
         <v>1312.7454505998796</v>
       </c>
-      <c r="F21" s="20">
+      <c r="F21" s="16">
         <v>6473.4685545600005</v>
       </c>
-      <c r="G21" s="20">
+      <c r="G21" s="16">
         <v>46846.029400820138</v>
       </c>
-      <c r="H21" s="20">
+      <c r="H21" s="16">
         <v>12185.271024973972</v>
       </c>
-      <c r="I21" s="20">
+      <c r="I21" s="16">
         <v>39374.995481760132</v>
       </c>
-      <c r="J21" s="20">
+      <c r="J21" s="16">
         <v>46532.527144254957</v>
       </c>
-      <c r="K21" s="20">
+      <c r="K21" s="16">
         <v>14002.967293834648</v>
       </c>
-      <c r="L21" s="20">
+      <c r="L21" s="16">
         <v>32832.791791365467</v>
       </c>
-      <c r="M21" s="20">
+      <c r="M21" s="16">
         <v>14828.26230309104</v>
       </c>
-      <c r="N21" s="20">
+      <c r="N21" s="16">
         <v>20056.230242672602</v>
       </c>
-      <c r="O21" s="20">
+      <c r="O21" s="16">
         <v>195017.56864037202</v>
       </c>
-      <c r="P21" s="20">
+      <c r="P21" s="16">
         <v>155819.21937962412</v>
       </c>
-      <c r="Q21" s="20">
+      <c r="Q21" s="16">
         <v>42458.519145627317</v>
       </c>
-      <c r="R21" s="20">
+      <c r="R21" s="16">
         <v>16113.172818654723</v>
       </c>
-      <c r="S21" s="20">
+      <c r="S21" s="16">
         <v>19635.040967427194</v>
       </c>
-      <c r="T21" s="20">
+      <c r="T21" s="16">
         <v>0</v>
       </c>
     </row>
@@ -2507,61 +2522,61 @@
       <c r="A22" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B22" s="21">
+      <c r="B22" s="17">
         <v>63093.415307334144</v>
       </c>
-      <c r="C22" s="21">
+      <c r="C22" s="17">
         <v>3117.2026084079662</v>
       </c>
-      <c r="D22" s="21">
+      <c r="D22" s="17">
         <v>522303.75894190179</v>
       </c>
-      <c r="E22" s="21">
+      <c r="E22" s="17">
         <v>11221.011824105664</v>
       </c>
-      <c r="F22" s="21">
+      <c r="F22" s="17">
         <v>65340</v>
       </c>
-      <c r="G22" s="21">
+      <c r="G22" s="17">
         <v>244924.50876412203</v>
       </c>
-      <c r="H22" s="21">
+      <c r="H22" s="17">
         <v>44534.299130034495</v>
       </c>
-      <c r="I22" s="21">
+      <c r="I22" s="17">
         <v>157280.17503714122</v>
       </c>
-      <c r="J22" s="21">
+      <c r="J22" s="17">
         <v>237548.74595697253</v>
       </c>
-      <c r="K22" s="21">
+      <c r="K22" s="17">
         <v>33377.738140363523</v>
       </c>
-      <c r="L22" s="21">
+      <c r="L22" s="17">
         <v>172434.30138960149</v>
       </c>
-      <c r="M22" s="21">
+      <c r="M22" s="17">
         <v>93642.078143849576</v>
       </c>
-      <c r="N22" s="21">
+      <c r="N22" s="17">
         <v>224279.07500997675</v>
       </c>
-      <c r="O22" s="21">
+      <c r="O22" s="17">
         <v>229144.78394987743</v>
       </c>
-      <c r="P22" s="21">
+      <c r="P22" s="17">
         <v>173817.09283814029</v>
       </c>
-      <c r="Q22" s="21">
+      <c r="Q22" s="17">
         <v>62822.932083217238</v>
       </c>
-      <c r="R22" s="21">
+      <c r="R22" s="17">
         <v>34130.459750335947</v>
       </c>
-      <c r="S22" s="21">
+      <c r="S22" s="17">
         <v>19635.040967427194</v>
       </c>
-      <c r="T22" s="21">
+      <c r="T22" s="17">
         <v>0</v>
       </c>
     </row>
@@ -2623,7 +2638,7 @@
       <c r="S23" s="2">
         <v>19635.040967427194</v>
       </c>
-      <c r="T23" s="22">
+      <c r="T23" s="18">
         <v>0</v>
       </c>
     </row>
@@ -2685,7 +2700,7 @@
       <c r="S24" s="2">
         <v>19635.040967427194</v>
       </c>
-      <c r="T24" s="23">
+      <c r="T24" s="19">
         <v>0</v>
       </c>
     </row>
@@ -2720,34 +2735,34 @@
       <c r="J25">
         <v>-337459.63686894719</v>
       </c>
-      <c r="K25" s="30">
-        <v>0</v>
-      </c>
-      <c r="L25" s="30">
-        <v>0</v>
-      </c>
-      <c r="M25" s="30">
-        <v>0</v>
-      </c>
-      <c r="N25" s="30">
-        <v>0</v>
-      </c>
-      <c r="O25" s="30">
-        <v>0</v>
-      </c>
-      <c r="P25" s="30">
-        <v>0</v>
-      </c>
-      <c r="Q25" s="30">
-        <v>0</v>
-      </c>
-      <c r="R25" s="30">
-        <v>0</v>
-      </c>
-      <c r="S25" s="30">
-        <v>0</v>
-      </c>
-      <c r="T25" s="30">
+      <c r="K25" s="26">
+        <v>0</v>
+      </c>
+      <c r="L25" s="26">
+        <v>0</v>
+      </c>
+      <c r="M25" s="26">
+        <v>0</v>
+      </c>
+      <c r="N25" s="26">
+        <v>0</v>
+      </c>
+      <c r="O25" s="26">
+        <v>0</v>
+      </c>
+      <c r="P25" s="26">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="26">
+        <v>0</v>
+      </c>
+      <c r="R25" s="26">
+        <v>0</v>
+      </c>
+      <c r="S25" s="26">
+        <v>0</v>
+      </c>
+      <c r="T25" s="26">
         <v>0</v>
       </c>
     </row>
@@ -2755,7 +2770,7 @@
       <c r="A26" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="B26" s="18">
+      <c r="B26" s="14">
         <v>10070.018166301048</v>
       </c>
       <c r="C26">
@@ -2782,118 +2797,118 @@
       <c r="J26">
         <v>0</v>
       </c>
-      <c r="K26" s="30">
-        <v>0</v>
-      </c>
-      <c r="L26" s="30">
+      <c r="K26" s="26">
+        <v>0</v>
+      </c>
+      <c r="L26" s="26">
         <v>-107844.7326656011</v>
       </c>
-      <c r="M26" s="30">
-        <v>0</v>
-      </c>
-      <c r="N26" s="30">
-        <v>0</v>
-      </c>
-      <c r="O26" s="30">
-        <v>0</v>
-      </c>
-      <c r="P26" s="30">
-        <v>0</v>
-      </c>
-      <c r="Q26" s="30">
-        <v>0</v>
-      </c>
-      <c r="R26" s="30">
-        <v>0</v>
-      </c>
-      <c r="S26" s="30">
-        <v>0</v>
-      </c>
-      <c r="T26" s="30">
+      <c r="M26" s="26">
+        <v>0</v>
+      </c>
+      <c r="N26" s="26">
+        <v>0</v>
+      </c>
+      <c r="O26" s="26">
+        <v>0</v>
+      </c>
+      <c r="P26" s="26">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="26">
+        <v>0</v>
+      </c>
+      <c r="R26" s="26">
+        <v>0</v>
+      </c>
+      <c r="S26" s="26">
+        <v>0</v>
+      </c>
+      <c r="T26" s="26">
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:20" ht="15.75">
       <c r="A27" s="5"/>
-      <c r="B27" s="18"/>
+      <c r="B27" s="14"/>
     </row>
     <row r="28" spans="1:20" ht="15.75">
       <c r="A28" s="5"/>
-      <c r="B28" s="18"/>
+      <c r="B28" s="14"/>
     </row>
     <row r="29" spans="1:20" ht="15.75">
       <c r="A29" s="3"/>
-      <c r="B29" s="18"/>
+      <c r="B29" s="14"/>
     </row>
     <row r="30" spans="1:20" ht="15.75">
       <c r="A30" s="3"/>
-      <c r="B30" s="18"/>
+      <c r="B30" s="14"/>
     </row>
     <row r="31" spans="1:20" ht="15.75">
       <c r="A31" s="3"/>
-      <c r="B31" s="18"/>
+      <c r="B31" s="14"/>
     </row>
     <row r="32" spans="1:20" ht="15.75">
       <c r="A32" s="3"/>
-      <c r="B32" s="18"/>
+      <c r="B32" s="14"/>
     </row>
     <row r="33" spans="1:2" ht="15.75">
       <c r="A33" s="3"/>
-      <c r="B33" s="18"/>
+      <c r="B33" s="14"/>
     </row>
     <row r="34" spans="1:2" ht="15.75">
       <c r="A34" s="3"/>
-      <c r="B34" s="18"/>
+      <c r="B34" s="14"/>
     </row>
     <row r="35" spans="1:2" ht="15.75">
       <c r="A35" s="3"/>
-      <c r="B35" s="18"/>
+      <c r="B35" s="14"/>
     </row>
     <row r="36" spans="1:2" ht="15.75">
       <c r="A36" s="3"/>
-      <c r="B36" s="18"/>
+      <c r="B36" s="14"/>
     </row>
     <row r="37" spans="1:2" ht="15.75">
       <c r="A37" s="3"/>
-      <c r="B37" s="18"/>
+      <c r="B37" s="14"/>
     </row>
     <row r="38" spans="1:2" ht="15.75">
       <c r="A38" s="3"/>
-      <c r="B38" s="18"/>
+      <c r="B38" s="14"/>
     </row>
     <row r="39" spans="1:2" ht="15.75">
       <c r="A39" s="3"/>
-      <c r="B39" s="18"/>
+      <c r="B39" s="14"/>
     </row>
     <row r="40" spans="1:2">
-      <c r="B40" s="18"/>
+      <c r="B40" s="14"/>
     </row>
     <row r="41" spans="1:2">
-      <c r="B41" s="18"/>
+      <c r="B41" s="14"/>
     </row>
     <row r="42" spans="1:2">
-      <c r="B42" s="18"/>
+      <c r="B42" s="14"/>
     </row>
     <row r="43" spans="1:2">
-      <c r="B43" s="18"/>
+      <c r="B43" s="14"/>
     </row>
     <row r="44" spans="1:2">
-      <c r="B44" s="18"/>
+      <c r="B44" s="14"/>
     </row>
     <row r="45" spans="1:2">
-      <c r="B45" s="18"/>
+      <c r="B45" s="14"/>
     </row>
     <row r="46" spans="1:2">
-      <c r="B46" s="18"/>
+      <c r="B46" s="14"/>
     </row>
     <row r="47" spans="1:2">
-      <c r="B47" s="18"/>
+      <c r="B47" s="14"/>
     </row>
     <row r="48" spans="1:2">
-      <c r="B48" s="18"/>
+      <c r="B48" s="14"/>
     </row>
     <row r="49" spans="2:2">
-      <c r="B49" s="18"/>
+      <c r="B49" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2901,10 +2916,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
@@ -2915,273 +2930,273 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.75">
-      <c r="A1" s="13"/>
-      <c r="B1" s="16" t="s">
+      <c r="A1" s="9"/>
+      <c r="B1" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="12" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15.75">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="15">
+      <c r="B2" s="11">
         <v>254195</v>
       </c>
-      <c r="C2" s="15">
+      <c r="C2" s="11">
         <v>560019</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15.75">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="15">
+      <c r="B3" s="11">
         <v>135138</v>
       </c>
-      <c r="C3" s="15">
+      <c r="C3" s="11">
         <v>171479</v>
       </c>
-      <c r="E3" s="11"/>
+      <c r="E3" s="8"/>
     </row>
     <row r="4" spans="1:5" ht="15.75">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="15">
+      <c r="B4" s="11">
         <v>192103</v>
       </c>
-      <c r="C4" s="15">
+      <c r="C4" s="11">
         <v>1061726</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15.75">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="B5" s="15">
+      <c r="B5" s="11">
         <v>54939</v>
       </c>
-      <c r="C5" s="15">
+      <c r="C5" s="11">
         <v>82238</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15.75">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="15">
+      <c r="B6" s="11">
         <v>26029</v>
       </c>
-      <c r="C6" s="15">
+      <c r="C6" s="11">
         <v>49261</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15.75">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="15">
+      <c r="B7" s="11">
         <v>129459</v>
       </c>
-      <c r="C7" s="15">
+      <c r="C7" s="11">
         <v>2012045</v>
       </c>
-      <c r="D7" s="11"/>
+      <c r="D7" s="8"/>
     </row>
     <row r="8" spans="1:5" ht="15.75">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="B8" s="15">
+      <c r="B8" s="11">
         <v>266871</v>
       </c>
-      <c r="C8" s="15">
+      <c r="C8" s="11">
         <v>1780540</v>
       </c>
-      <c r="D8" s="11"/>
+      <c r="D8" s="8"/>
     </row>
     <row r="9" spans="1:5" ht="15.75">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="B9" s="15">
+      <c r="B9" s="11">
         <v>161153</v>
       </c>
-      <c r="C9" s="15">
+      <c r="C9" s="11">
         <v>435347</v>
       </c>
-      <c r="D9" s="11"/>
+      <c r="D9" s="8"/>
     </row>
     <row r="10" spans="1:5" ht="15.75">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="B10" s="15">
+      <c r="B10" s="11">
         <v>34952</v>
       </c>
-      <c r="C10" s="15">
+      <c r="C10" s="11">
         <v>382345</v>
       </c>
-      <c r="D10" s="11"/>
+      <c r="D10" s="8"/>
     </row>
     <row r="11" spans="1:5" ht="15.75">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="B11" s="15">
+      <c r="B11" s="11">
         <v>50499</v>
       </c>
-      <c r="C11" s="15">
+      <c r="C11" s="11">
         <v>134993</v>
       </c>
-      <c r="D11" s="11"/>
+      <c r="D11" s="8"/>
     </row>
     <row r="12" spans="1:5" ht="15.75">
-      <c r="A12" s="14" t="s">
+      <c r="A12" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="B12" s="15">
+      <c r="B12" s="11">
         <v>88764</v>
       </c>
-      <c r="C12" s="15">
+      <c r="C12" s="11">
         <v>143274</v>
       </c>
-      <c r="D12" s="11"/>
+      <c r="D12" s="8"/>
     </row>
     <row r="13" spans="1:5" ht="15.75">
-      <c r="A13" s="14" t="s">
+      <c r="A13" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="B13" s="15">
+      <c r="B13" s="11">
         <v>69103</v>
       </c>
-      <c r="C13" s="15">
+      <c r="C13" s="11">
         <v>107651</v>
       </c>
-      <c r="D13" s="11"/>
+      <c r="D13" s="8"/>
     </row>
     <row r="14" spans="1:5" ht="15.75">
-      <c r="A14" s="7" t="s">
+      <c r="A14" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="B14" s="15">
+      <c r="B14" s="11">
         <v>38851</v>
       </c>
-      <c r="C14" s="15">
+      <c r="C14" s="11">
         <v>199114</v>
       </c>
-      <c r="D14" s="11"/>
+      <c r="D14" s="8"/>
     </row>
     <row r="15" spans="1:5" ht="15.75">
-      <c r="A15" s="7" t="s">
+      <c r="A15" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="B15" s="15">
+      <c r="B15" s="11">
         <v>107062</v>
       </c>
-      <c r="C15" s="15">
+      <c r="C15" s="11">
         <v>325198</v>
       </c>
-      <c r="D15" s="11"/>
+      <c r="D15" s="8"/>
     </row>
     <row r="16" spans="1:5" ht="15.75">
-      <c r="A16" s="7" t="s">
+      <c r="A16" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="B16" s="15">
+      <c r="B16" s="11">
         <v>1818057</v>
       </c>
-      <c r="C16" s="15">
+      <c r="C16" s="11">
         <v>1873789</v>
       </c>
-      <c r="D16" s="11"/>
+      <c r="D16" s="8"/>
     </row>
     <row r="17" spans="1:4" ht="15.75">
-      <c r="A17" s="14" t="s">
+      <c r="A17" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="B17" s="15">
+      <c r="B17" s="11">
         <v>1179860</v>
       </c>
-      <c r="C17" s="15">
+      <c r="C17" s="11">
         <v>1272248</v>
       </c>
-      <c r="D17" s="11"/>
+      <c r="D17" s="8"/>
     </row>
     <row r="18" spans="1:4" ht="15.75">
-      <c r="A18" s="14" t="s">
+      <c r="A18" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="B18" s="15">
+      <c r="B18" s="11">
         <v>346215</v>
       </c>
-      <c r="C18" s="15">
+      <c r="C18" s="11">
         <v>552803</v>
       </c>
-      <c r="D18" s="11"/>
+      <c r="D18" s="8"/>
     </row>
     <row r="19" spans="1:4" ht="15.75">
-      <c r="A19" s="8" t="s">
+      <c r="A19" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="B19" s="15">
+      <c r="B19" s="11">
         <v>4717</v>
       </c>
-      <c r="C19" s="15">
+      <c r="C19" s="11">
         <v>26537</v>
       </c>
-      <c r="D19" s="11"/>
+      <c r="D19" s="8"/>
     </row>
     <row r="20" spans="1:4" ht="15.75">
-      <c r="A20" s="8" t="s">
+      <c r="A20" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="B20" s="15">
+      <c r="B20" s="11">
         <v>57473</v>
       </c>
-      <c r="C20" s="15">
+      <c r="C20" s="11">
         <v>223100</v>
       </c>
-      <c r="D20" s="11"/>
+      <c r="D20" s="8"/>
     </row>
     <row r="21" spans="1:4" ht="15.75">
-      <c r="A21" s="14" t="s">
+      <c r="A21" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="B21" s="15">
+      <c r="B21" s="11">
         <v>4414</v>
       </c>
-      <c r="C21" s="15">
+      <c r="C21" s="11">
         <v>974273</v>
       </c>
-      <c r="D21" s="11"/>
+      <c r="D21" s="8"/>
     </row>
     <row r="22" spans="1:4" ht="15.75">
-      <c r="A22" s="8" t="s">
+      <c r="A22" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="B22" s="15">
+      <c r="B22" s="11">
         <v>1725</v>
       </c>
-      <c r="C22" s="15">
+      <c r="C22" s="11">
         <v>8719</v>
       </c>
-      <c r="D22" s="11"/>
+      <c r="D22" s="8"/>
     </row>
     <row r="23" spans="1:4" ht="15.75">
-      <c r="A23" s="4" t="s">
+      <c r="A23" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B23" s="9">
-        <v>0</v>
-      </c>
-      <c r="C23" s="9">
-        <v>0</v>
-      </c>
-      <c r="D23" s="11"/>
+      <c r="B23" s="6">
+        <v>0</v>
+      </c>
+      <c r="C23" s="6">
+        <v>0</v>
+      </c>
+      <c r="D23" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3189,10 +3204,10 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E85"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" workbookViewId="0">
+    <sheetView topLeftCell="A70" workbookViewId="0">
       <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
@@ -3211,958 +3226,958 @@
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="B2" s="26">
+      <c r="B2" s="22">
         <v>47620</v>
       </c>
-      <c r="C2" s="29">
+      <c r="C2" s="25">
         <v>290868</v>
       </c>
-      <c r="D2" s="17"/>
+      <c r="D2" s="13"/>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="B3" s="26">
+      <c r="B3" s="22">
         <v>311</v>
       </c>
-      <c r="C3" s="29">
+      <c r="C3" s="25">
         <v>1334</v>
       </c>
-      <c r="D3" s="17"/>
+      <c r="D3" s="13"/>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="24" t="s">
+      <c r="A4" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="B4" s="26">
+      <c r="B4" s="22">
         <v>1072</v>
       </c>
-      <c r="C4" s="29">
+      <c r="C4" s="25">
         <v>5015</v>
       </c>
-      <c r="D4" s="10"/>
-      <c r="E4" s="18"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="14"/>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="24" t="s">
+      <c r="A5" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="B5" s="26">
+      <c r="B5" s="22">
         <v>8</v>
       </c>
-      <c r="C5" s="29">
+      <c r="C5" s="25">
         <v>12</v>
       </c>
-      <c r="D5" s="17"/>
+      <c r="D5" s="13"/>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="24" t="s">
+      <c r="A6" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="B6" s="26">
+      <c r="B6" s="22">
         <v>51125</v>
       </c>
-      <c r="C6" s="29">
+      <c r="C6" s="25">
         <v>61429</v>
       </c>
-      <c r="D6" s="17"/>
+      <c r="D6" s="13"/>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="24" t="s">
+      <c r="A7" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="B7" s="26">
+      <c r="B7" s="22">
         <v>2148</v>
       </c>
-      <c r="C7" s="29">
+      <c r="C7" s="25">
         <v>3732</v>
       </c>
-      <c r="D7" s="17"/>
+      <c r="D7" s="13"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="24" t="s">
+      <c r="A8" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="B8" s="26">
+      <c r="B8" s="22">
         <v>1085</v>
       </c>
-      <c r="C8" s="29">
+      <c r="C8" s="25">
         <v>9906</v>
       </c>
-      <c r="D8" s="17"/>
+      <c r="D8" s="13"/>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="24" t="s">
+      <c r="A9" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="B9" s="26">
+      <c r="B9" s="22">
         <v>8511</v>
       </c>
-      <c r="C9" s="29">
+      <c r="C9" s="25">
         <v>20442</v>
       </c>
-      <c r="D9" s="17"/>
+      <c r="D9" s="13"/>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="24" t="s">
+      <c r="A10" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="B10" s="26">
+      <c r="B10" s="22">
         <v>23973</v>
       </c>
-      <c r="C10" s="29">
+      <c r="C10" s="25">
         <v>112037</v>
       </c>
-      <c r="D10" s="17"/>
+      <c r="D10" s="13"/>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="24" t="s">
+      <c r="A11" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="B11" s="26">
+      <c r="B11" s="22">
         <v>6624</v>
       </c>
-      <c r="C11" s="29">
+      <c r="C11" s="25">
         <v>29184</v>
       </c>
-      <c r="D11" s="17"/>
+      <c r="D11" s="13"/>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="24" t="s">
+      <c r="A12" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="B12" s="26">
+      <c r="B12" s="22">
         <v>24</v>
       </c>
-      <c r="C12" s="29">
+      <c r="C12" s="25">
         <v>225</v>
       </c>
-      <c r="D12" s="17"/>
+      <c r="D12" s="13"/>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="24" t="s">
+      <c r="A13" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="B13" s="26">
+      <c r="B13" s="22">
         <v>3118</v>
       </c>
-      <c r="C13" s="29">
+      <c r="C13" s="25">
         <v>22539</v>
       </c>
-      <c r="D13" s="17"/>
+      <c r="D13" s="13"/>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="24" t="s">
+      <c r="A14" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="B14" s="26">
+      <c r="B14" s="22">
         <v>13195</v>
       </c>
-      <c r="C14" s="29">
+      <c r="C14" s="25">
         <v>82842</v>
       </c>
-      <c r="D14" s="17"/>
+      <c r="D14" s="13"/>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="24" t="s">
+      <c r="A15" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="B15" s="26">
+      <c r="B15" s="22">
         <v>232</v>
       </c>
-      <c r="C15" s="29">
+      <c r="C15" s="25">
         <v>2199</v>
       </c>
-      <c r="D15" s="17"/>
+      <c r="D15" s="13"/>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="24" t="s">
+      <c r="A16" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="B16" s="26">
+      <c r="B16" s="22">
         <v>3148</v>
       </c>
-      <c r="C16" s="29">
+      <c r="C16" s="25">
         <v>28432</v>
       </c>
-      <c r="D16" s="17"/>
+      <c r="D16" s="13"/>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="24" t="s">
+      <c r="A17" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="B17" s="26">
+      <c r="B17" s="22">
         <v>4028</v>
       </c>
-      <c r="C17" s="29">
+      <c r="C17" s="25">
         <v>16900</v>
       </c>
-      <c r="D17" s="17"/>
+      <c r="D17" s="13"/>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="24" t="s">
+      <c r="A18" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="B18" s="26">
+      <c r="B18" s="22">
         <v>4440</v>
       </c>
-      <c r="C18" s="29">
+      <c r="C18" s="25">
         <v>18845</v>
       </c>
-      <c r="D18" s="17"/>
+      <c r="D18" s="13"/>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="24" t="s">
+      <c r="A19" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="B19" s="26">
+      <c r="B19" s="22">
         <v>14440</v>
       </c>
-      <c r="C19" s="29">
+      <c r="C19" s="25">
         <v>18776</v>
       </c>
-      <c r="D19" s="17"/>
+      <c r="D19" s="13"/>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="24" t="s">
+      <c r="A20" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="B20" s="26">
+      <c r="B20" s="22">
         <v>47856</v>
       </c>
-      <c r="C20" s="29">
+      <c r="C20" s="25">
         <v>96763</v>
       </c>
-      <c r="D20" s="17"/>
+      <c r="D20" s="13"/>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="24" t="s">
+      <c r="A21" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="B21" s="26">
+      <c r="B21" s="22">
         <v>2829</v>
       </c>
-      <c r="C21" s="29">
+      <c r="C21" s="25">
         <v>7283</v>
       </c>
-      <c r="D21" s="17"/>
+      <c r="D21" s="13"/>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="24" t="s">
+      <c r="A22" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="B22" s="26">
+      <c r="B22" s="22">
         <v>7274</v>
       </c>
-      <c r="C22" s="29">
+      <c r="C22" s="25">
         <v>27813</v>
       </c>
-      <c r="D22" s="17"/>
+      <c r="D22" s="13"/>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="24" t="s">
+      <c r="A23" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="B23" s="26">
+      <c r="B23" s="22">
         <v>29249</v>
       </c>
-      <c r="C23" s="29">
+      <c r="C23" s="25">
         <v>133804</v>
       </c>
-      <c r="D23" s="17"/>
+      <c r="D23" s="13"/>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="24" t="s">
+      <c r="A24" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="B24" s="26">
+      <c r="B24" s="22">
         <v>17137</v>
       </c>
-      <c r="C24" s="29">
+      <c r="C24" s="25">
         <v>48067</v>
       </c>
-      <c r="D24" s="17"/>
+      <c r="D24" s="13"/>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="24" t="s">
+      <c r="A25" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="B25" s="26">
+      <c r="B25" s="22">
         <v>18249</v>
       </c>
-      <c r="C25" s="29">
+      <c r="C25" s="25">
         <v>138581</v>
       </c>
-      <c r="D25" s="17"/>
+      <c r="D25" s="13"/>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="24" t="s">
+      <c r="A26" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="B26" s="26">
+      <c r="B26" s="22">
         <v>1029</v>
       </c>
-      <c r="C26" s="29">
+      <c r="C26" s="25">
         <v>2813</v>
       </c>
-      <c r="D26" s="17"/>
+      <c r="D26" s="13"/>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="24" t="s">
+      <c r="A27" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="B27" s="26">
+      <c r="B27" s="22">
         <v>5653</v>
       </c>
-      <c r="C27" s="29">
+      <c r="C27" s="25">
         <v>22821</v>
       </c>
-      <c r="D27" s="17"/>
+      <c r="D27" s="13"/>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" s="24" t="s">
+      <c r="A28" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="B28" s="26">
+      <c r="B28" s="22">
         <v>5675</v>
       </c>
-      <c r="C28" s="29">
+      <c r="C28" s="25">
         <v>26492</v>
       </c>
-      <c r="D28" s="17"/>
+      <c r="D28" s="13"/>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" s="24" t="s">
+      <c r="A29" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="B29" s="26">
+      <c r="B29" s="22">
         <v>1483</v>
       </c>
-      <c r="C29" s="29">
+      <c r="C29" s="25">
         <v>7944</v>
       </c>
-      <c r="D29" s="17"/>
+      <c r="D29" s="13"/>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="24" t="s">
+      <c r="A30" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="B30" s="26">
+      <c r="B30" s="22">
         <v>1002</v>
       </c>
-      <c r="C30" s="29">
+      <c r="C30" s="25">
         <v>2870</v>
       </c>
-      <c r="D30" s="17"/>
+      <c r="D30" s="13"/>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="24" t="s">
+      <c r="A31" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="B31" s="26">
+      <c r="B31" s="22">
         <v>8766</v>
       </c>
-      <c r="C31" s="29">
+      <c r="C31" s="25">
         <v>58310</v>
       </c>
-      <c r="D31" s="17"/>
+      <c r="D31" s="13"/>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="24" t="s">
+      <c r="A32" s="20" t="s">
         <v>76</v>
       </c>
-      <c r="B32" s="26">
+      <c r="B32" s="22">
         <v>1521</v>
       </c>
-      <c r="C32" s="29">
+      <c r="C32" s="25">
         <v>7708</v>
       </c>
-      <c r="D32" s="17"/>
+      <c r="D32" s="13"/>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33" s="24" t="s">
+      <c r="A33" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="B33" s="26">
+      <c r="B33" s="22">
         <v>11254</v>
       </c>
-      <c r="C33" s="29">
+      <c r="C33" s="25">
         <v>64696</v>
       </c>
     </row>
     <row r="34" spans="1:3">
-      <c r="A34" s="24" t="s">
+      <c r="A34" s="20" t="s">
         <v>78</v>
       </c>
-      <c r="B34" s="26">
+      <c r="B34" s="22">
         <v>55659</v>
       </c>
-      <c r="C34" s="29">
+      <c r="C34" s="25">
         <v>70206</v>
       </c>
     </row>
     <row r="35" spans="1:3">
-      <c r="A35" s="24" t="s">
+      <c r="A35" s="20" t="s">
         <v>79</v>
       </c>
-      <c r="B35" s="26">
+      <c r="B35" s="22">
         <v>7162</v>
       </c>
-      <c r="C35" s="29">
+      <c r="C35" s="25">
         <v>20666</v>
       </c>
     </row>
     <row r="36" spans="1:3">
-      <c r="A36" s="24" t="s">
+      <c r="A36" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="B36" s="26">
+      <c r="B36" s="22">
         <v>1499</v>
       </c>
-      <c r="C36" s="29">
+      <c r="C36" s="25">
         <v>10510</v>
       </c>
     </row>
     <row r="37" spans="1:3">
-      <c r="A37" s="24" t="s">
+      <c r="A37" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="B37" s="26">
+      <c r="B37" s="22">
         <v>1123</v>
       </c>
-      <c r="C37" s="29">
+      <c r="C37" s="25">
         <v>10088</v>
       </c>
     </row>
     <row r="38" spans="1:3">
-      <c r="A38" s="24" t="s">
+      <c r="A38" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="B38" s="26">
+      <c r="B38" s="22">
         <v>106</v>
       </c>
-      <c r="C38" s="29">
+      <c r="C38" s="25">
         <v>263</v>
       </c>
     </row>
     <row r="39" spans="1:3">
-      <c r="A39" s="24" t="s">
+      <c r="A39" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="B39" s="26">
+      <c r="B39" s="22">
         <v>92656</v>
       </c>
-      <c r="C39" s="29">
+      <c r="C39" s="25">
         <v>689519</v>
       </c>
     </row>
     <row r="40" spans="1:3">
-      <c r="A40" s="24" t="s">
+      <c r="A40" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="B40" s="26">
+      <c r="B40" s="22">
         <v>20850</v>
       </c>
-      <c r="C40" s="29">
+      <c r="C40" s="25">
         <v>180384</v>
       </c>
     </row>
     <row r="41" spans="1:3">
-      <c r="A41" s="24" t="s">
+      <c r="A41" s="20" t="s">
         <v>85</v>
       </c>
-      <c r="B41" s="26">
+      <c r="B41" s="22">
         <v>25215</v>
       </c>
-      <c r="C41" s="29">
+      <c r="C41" s="25">
         <v>190155</v>
       </c>
     </row>
     <row r="42" spans="1:3">
-      <c r="A42" s="24" t="s">
+      <c r="A42" s="20" t="s">
         <v>86</v>
       </c>
-      <c r="B42" s="26">
+      <c r="B42" s="22">
         <v>73607</v>
       </c>
-      <c r="C42" s="29">
+      <c r="C42" s="25">
         <v>379132</v>
       </c>
     </row>
     <row r="43" spans="1:3">
-      <c r="A43" s="24" t="s">
+      <c r="A43" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="B43" s="26">
+      <c r="B43" s="22">
         <v>65587</v>
       </c>
-      <c r="C43" s="29">
+      <c r="C43" s="25">
         <v>239788</v>
       </c>
     </row>
     <row r="44" spans="1:3">
-      <c r="A44" s="24" t="s">
+      <c r="A44" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="B44" s="26">
+      <c r="B44" s="22">
         <v>253400</v>
       </c>
-      <c r="C44" s="29">
+      <c r="C44" s="25">
         <v>1021906</v>
       </c>
     </row>
     <row r="45" spans="1:3">
-      <c r="A45" s="24" t="s">
+      <c r="A45" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="B45" s="26">
+      <c r="B45" s="22">
         <v>29355</v>
       </c>
-      <c r="C45" s="29">
+      <c r="C45" s="25">
         <v>99666</v>
       </c>
     </row>
     <row r="46" spans="1:3">
-      <c r="A46" s="24" t="s">
+      <c r="A46" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="B46" s="26">
+      <c r="B46" s="22">
         <v>2415</v>
       </c>
-      <c r="C46" s="29">
+      <c r="C46" s="25">
         <v>9142</v>
       </c>
     </row>
     <row r="47" spans="1:3">
-      <c r="A47" s="24" t="s">
+      <c r="A47" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="B47" s="26">
+      <c r="B47" s="22">
         <v>25678</v>
       </c>
-      <c r="C47" s="29">
+      <c r="C47" s="25">
         <v>34078</v>
       </c>
     </row>
     <row r="48" spans="1:3">
-      <c r="A48" s="24" t="s">
+      <c r="A48" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="B48" s="26">
+      <c r="B48" s="22">
         <v>25781</v>
       </c>
-      <c r="C48" s="29">
+      <c r="C48" s="25">
         <v>104828</v>
       </c>
     </row>
     <row r="49" spans="1:3">
-      <c r="A49" s="24" t="s">
+      <c r="A49" s="20" t="s">
         <v>93</v>
       </c>
-      <c r="B49" s="26">
+      <c r="B49" s="22">
         <v>1733</v>
       </c>
-      <c r="C49" s="29">
+      <c r="C49" s="25">
         <v>3325</v>
       </c>
     </row>
     <row r="50" spans="1:3">
-      <c r="A50" s="24" t="s">
+      <c r="A50" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="B50" s="26">
+      <c r="B50" s="22">
         <v>36217</v>
       </c>
-      <c r="C50" s="29">
+      <c r="C50" s="25">
         <v>132129</v>
       </c>
     </row>
     <row r="51" spans="1:3">
-      <c r="A51" s="24" t="s">
+      <c r="A51" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="B51" s="26">
+      <c r="B51" s="22">
         <v>56959</v>
       </c>
-      <c r="C51" s="29">
+      <c r="C51" s="25">
         <v>371955</v>
       </c>
     </row>
     <row r="52" spans="1:3">
-      <c r="A52" s="24" t="s">
+      <c r="A52" s="20" t="s">
         <v>96</v>
       </c>
-      <c r="B52" s="26">
+      <c r="B52" s="22">
         <v>6814</v>
       </c>
-      <c r="C52" s="29">
+      <c r="C52" s="25">
         <v>13647</v>
       </c>
     </row>
     <row r="53" spans="1:3">
-      <c r="A53" s="24" t="s">
+      <c r="A53" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="B53" s="26">
+      <c r="B53" s="22">
         <v>570</v>
       </c>
-      <c r="C53" s="29">
+      <c r="C53" s="25">
         <v>1325</v>
       </c>
     </row>
     <row r="54" spans="1:3">
-      <c r="A54" s="24" t="s">
+      <c r="A54" s="20" t="s">
         <v>98</v>
       </c>
-      <c r="B54" s="26">
+      <c r="B54" s="22">
         <v>488</v>
       </c>
-      <c r="C54" s="29">
+      <c r="C54" s="25">
         <v>1592</v>
       </c>
     </row>
     <row r="55" spans="1:3">
-      <c r="A55" s="24" t="s">
+      <c r="A55" s="20" t="s">
         <v>99</v>
       </c>
-      <c r="B55" s="26">
+      <c r="B55" s="22">
         <v>64136</v>
       </c>
-      <c r="C55" s="29">
+      <c r="C55" s="25">
         <v>78654</v>
       </c>
     </row>
     <row r="56" spans="1:3">
-      <c r="A56" s="24" t="s">
+      <c r="A56" s="20" t="s">
         <v>100</v>
       </c>
-      <c r="B56" s="26">
+      <c r="B56" s="22">
         <v>2780</v>
       </c>
-      <c r="C56" s="29">
+      <c r="C56" s="25">
         <v>7923</v>
       </c>
     </row>
     <row r="57" spans="1:3">
-      <c r="A57" s="24" t="s">
+      <c r="A57" s="20" t="s">
         <v>101</v>
       </c>
-      <c r="B57" s="26">
+      <c r="B57" s="22">
         <v>1036</v>
       </c>
-      <c r="C57" s="29">
+      <c r="C57" s="25">
         <v>2728</v>
       </c>
     </row>
     <row r="58" spans="1:3">
-      <c r="A58" s="24" t="s">
+      <c r="A58" s="20" t="s">
         <v>102</v>
       </c>
-      <c r="B58" s="26">
+      <c r="B58" s="22">
         <v>67530</v>
       </c>
-      <c r="C58" s="28">
+      <c r="C58" s="24">
         <v>88563</v>
       </c>
     </row>
     <row r="59" spans="1:3">
-      <c r="A59" s="24" t="s">
+      <c r="A59" s="20" t="s">
         <v>103</v>
       </c>
-      <c r="B59" s="26">
+      <c r="B59" s="22">
         <v>9600</v>
       </c>
-      <c r="C59" s="28">
+      <c r="C59" s="24">
         <v>17712</v>
       </c>
     </row>
     <row r="60" spans="1:3">
-      <c r="A60" s="24" t="s">
+      <c r="A60" s="20" t="s">
         <v>104</v>
       </c>
-      <c r="B60" s="26">
+      <c r="B60" s="22">
         <v>2537</v>
       </c>
-      <c r="C60" s="28">
+      <c r="C60" s="24">
         <v>4671</v>
       </c>
     </row>
     <row r="61" spans="1:3">
-      <c r="A61" s="24" t="s">
+      <c r="A61" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="B61" s="26">
+      <c r="B61" s="22">
         <v>66093</v>
       </c>
-      <c r="C61" s="28">
+      <c r="C61" s="24">
         <v>121487</v>
       </c>
     </row>
     <row r="62" spans="1:3">
-      <c r="A62" s="24" t="s">
+      <c r="A62" s="20" t="s">
         <v>106</v>
       </c>
-      <c r="B62" s="26">
+      <c r="B62" s="22">
         <v>6337</v>
       </c>
-      <c r="C62" s="28">
+      <c r="C62" s="24">
         <v>12168</v>
       </c>
     </row>
     <row r="63" spans="1:3">
-      <c r="A63" s="24" t="s">
+      <c r="A63" s="20" t="s">
         <v>107</v>
       </c>
-      <c r="B63" s="26">
+      <c r="B63" s="22">
         <v>3770</v>
       </c>
-      <c r="C63" s="28">
+      <c r="C63" s="24">
         <v>8879</v>
       </c>
     </row>
     <row r="64" spans="1:3">
-      <c r="A64" s="24" t="s">
+      <c r="A64" s="20" t="s">
         <v>108</v>
       </c>
-      <c r="B64" s="26">
+      <c r="B64" s="22">
         <v>10921</v>
       </c>
-      <c r="C64" s="28">
+      <c r="C64" s="24">
         <v>47826</v>
       </c>
     </row>
     <row r="65" spans="1:3">
-      <c r="A65" s="24" t="s">
+      <c r="A65" s="20" t="s">
         <v>109</v>
       </c>
-      <c r="B65" s="26">
+      <c r="B65" s="22">
         <v>230</v>
       </c>
-      <c r="C65" s="28">
+      <c r="C65" s="24">
         <v>486</v>
       </c>
     </row>
     <row r="66" spans="1:3">
-      <c r="A66" s="24" t="s">
+      <c r="A66" s="20" t="s">
         <v>110</v>
       </c>
-      <c r="B66" s="26">
+      <c r="B66" s="22">
         <v>7119</v>
       </c>
-      <c r="C66" s="28">
+      <c r="C66" s="24">
         <v>24814</v>
       </c>
     </row>
     <row r="67" spans="1:3">
-      <c r="A67" s="24" t="s">
+      <c r="A67" s="20" t="s">
         <v>111</v>
       </c>
-      <c r="B67" s="26">
+      <c r="B67" s="22">
         <v>3785</v>
       </c>
-      <c r="C67" s="28">
+      <c r="C67" s="24">
         <v>11762</v>
       </c>
     </row>
     <row r="68" spans="1:3">
-      <c r="A68" s="24" t="s">
+      <c r="A68" s="20" t="s">
         <v>112</v>
       </c>
-      <c r="B68" s="26">
+      <c r="B68" s="22">
         <v>260</v>
       </c>
-      <c r="C68" s="28">
+      <c r="C68" s="24">
         <v>1250</v>
       </c>
     </row>
     <row r="69" spans="1:3">
-      <c r="A69" s="24" t="s">
+      <c r="A69" s="20" t="s">
         <v>113</v>
       </c>
-      <c r="B69" s="26">
+      <c r="B69" s="22">
         <v>14135</v>
       </c>
-      <c r="C69" s="28">
+      <c r="C69" s="24">
         <v>48514</v>
       </c>
     </row>
     <row r="70" spans="1:3">
-      <c r="A70" s="24" t="s">
+      <c r="A70" s="20" t="s">
         <v>114</v>
       </c>
-      <c r="B70" s="26">
+      <c r="B70" s="22">
         <v>10437</v>
       </c>
-      <c r="C70" s="28">
+      <c r="C70" s="24">
         <v>20407</v>
       </c>
     </row>
     <row r="71" spans="1:3">
-      <c r="A71" s="24" t="s">
+      <c r="A71" s="20" t="s">
         <v>115</v>
       </c>
-      <c r="B71" s="26">
+      <c r="B71" s="22">
         <v>10921</v>
       </c>
-      <c r="C71" s="28">
+      <c r="C71" s="24">
         <v>21821</v>
       </c>
     </row>
     <row r="72" spans="1:3">
-      <c r="A72" s="24" t="s">
+      <c r="A72" s="20" t="s">
         <v>116</v>
       </c>
-      <c r="B72" s="26">
+      <c r="B72" s="22">
         <v>26129</v>
       </c>
-      <c r="C72" s="28">
+      <c r="C72" s="24">
         <v>32555</v>
       </c>
     </row>
     <row r="73" spans="1:3">
-      <c r="A73" s="24" t="s">
+      <c r="A73" s="20" t="s">
         <v>117</v>
       </c>
-      <c r="B73" s="26">
+      <c r="B73" s="22">
         <v>15021</v>
       </c>
-      <c r="C73" s="28">
+      <c r="C73" s="24">
         <v>123753</v>
       </c>
     </row>
     <row r="74" spans="1:3">
-      <c r="A74" s="24" t="s">
+      <c r="A74" s="20" t="s">
         <v>118</v>
       </c>
-      <c r="B74" s="26">
+      <c r="B74" s="22">
         <v>6030</v>
       </c>
-      <c r="C74" s="28">
+      <c r="C74" s="24">
         <v>14855</v>
       </c>
     </row>
     <row r="75" spans="1:3">
-      <c r="A75" s="24" t="s">
+      <c r="A75" s="20" t="s">
         <v>119</v>
       </c>
-      <c r="B75" s="26">
+      <c r="B75" s="22">
         <v>102926</v>
       </c>
-      <c r="C75" s="28">
+      <c r="C75" s="24">
         <v>186261</v>
       </c>
     </row>
     <row r="76" spans="1:3">
-      <c r="A76" s="24" t="s">
+      <c r="A76" s="20" t="s">
         <v>120</v>
       </c>
-      <c r="B76" s="26">
+      <c r="B76" s="22">
         <v>47272</v>
       </c>
-      <c r="C76" s="28">
+      <c r="C76" s="24">
         <v>169441</v>
       </c>
     </row>
     <row r="77" spans="1:3">
-      <c r="A77" s="24" t="s">
+      <c r="A77" s="20" t="s">
         <v>121</v>
       </c>
-      <c r="B77" s="26">
+      <c r="B77" s="22">
         <v>1254</v>
       </c>
-      <c r="C77" s="28">
+      <c r="C77" s="24">
         <v>1855</v>
       </c>
     </row>
     <row r="78" spans="1:3">
-      <c r="A78" s="24" t="s">
+      <c r="A78" s="20" t="s">
         <v>122</v>
       </c>
-      <c r="B78" s="26">
+      <c r="B78" s="22">
         <v>10644</v>
       </c>
-      <c r="C78" s="28">
+      <c r="C78" s="24">
         <v>15551</v>
       </c>
     </row>
     <row r="79" spans="1:3">
-      <c r="A79" s="24" t="s">
+      <c r="A79" s="20" t="s">
         <v>123</v>
       </c>
-      <c r="B79" s="26">
+      <c r="B79" s="22">
         <v>461</v>
       </c>
-      <c r="C79" s="28">
+      <c r="C79" s="24">
         <v>7453</v>
       </c>
     </row>
     <row r="80" spans="1:3">
-      <c r="A80" s="24" t="s">
+      <c r="A80" s="20" t="s">
         <v>124</v>
       </c>
-      <c r="B80" s="26">
+      <c r="B80" s="22">
         <v>509</v>
       </c>
-      <c r="C80" s="28">
+      <c r="C80" s="24">
         <v>1282</v>
       </c>
     </row>
     <row r="81" spans="1:3">
-      <c r="A81" s="24" t="s">
+      <c r="A81" s="20" t="s">
         <v>125</v>
       </c>
-      <c r="B81" s="26">
+      <c r="B81" s="22">
         <v>5778</v>
       </c>
-      <c r="C81" s="28">
+      <c r="C81" s="24">
         <v>21137</v>
       </c>
     </row>
     <row r="82" spans="1:3">
-      <c r="A82" s="24" t="s">
+      <c r="A82" s="20" t="s">
         <v>126</v>
       </c>
-      <c r="B82" s="26">
+      <c r="B82" s="22">
         <v>13454</v>
       </c>
-      <c r="C82" s="28">
+      <c r="C82" s="24">
         <v>18352</v>
       </c>
     </row>
     <row r="83" spans="1:3">
-      <c r="A83" s="24" t="s">
+      <c r="A83" s="20" t="s">
         <v>127</v>
       </c>
-      <c r="B83" s="26">
+      <c r="B83" s="22">
         <v>8394</v>
       </c>
-      <c r="C83" s="28">
+      <c r="C83" s="24">
         <v>37082</v>
       </c>
     </row>
     <row r="84" spans="1:3">
-      <c r="A84" s="24" t="s">
+      <c r="A84" s="20" t="s">
         <v>128</v>
       </c>
-      <c r="B84" s="26">
+      <c r="B84" s="22">
         <v>25726</v>
       </c>
-      <c r="C84" s="28">
+      <c r="C84" s="24">
         <v>151412</v>
       </c>
     </row>
     <row r="85" spans="1:3">
-      <c r="A85" s="25" t="s">
+      <c r="A85" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="B85" s="27">
+      <c r="B85" s="23">
         <v>1672178</v>
       </c>
-      <c r="C85" s="28">
+      <c r="C85" s="24">
         <v>6255640</v>
       </c>
     </row>
